--- a/test/test_data/test.xlsx
+++ b/test/test_data/test.xlsx
@@ -9,13 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2040" windowWidth="23040" windowHeight="9564"/>
+    <workbookView xWindow="0" yWindow="2448" windowWidth="23040" windowHeight="9564" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -353,7 +354,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -49600,4 +49601,37 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="e">
+        <f>10/0</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="B1" t="e">
+        <f>#REF!</f>
+        <v>#REF!</v>
+      </c>
+      <c r="C1" t="e">
+        <f>MONTH(-1)</f>
+        <v>#NUM!</v>
+      </c>
+      <c r="D1" t="e">
+        <f>MONTH("string")</f>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/test_data/test.xlsx
+++ b/test/test_data/test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennell\Projects\xlsxir\test\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennell/Projects/elixir/xlsxir Library/xlsxir/test/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2448" windowWidth="23040" windowHeight="9564" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,10 +17,14 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -40,6 +44,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="4">
+    <numFmt numFmtId="171" formatCode="\_x0009_\ ####.#"/>
+    <numFmt numFmtId="173" formatCode="#.0#"/>
+    <numFmt numFmtId="174" formatCode="yyyy"/>
+    <numFmt numFmtId="175" formatCode="mmm/dd/yyyy"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -69,9 +79,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -135,9 +149,9 @@
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic Light"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian Light"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -170,9 +184,9 @@
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Jpan" typeface="Yu Gothic"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hans" typeface="DengXian"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -358,9 +372,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -391,9 +405,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -401,7 +415,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -422,9 +436,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:16384" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -49591,9 +49605,9 @@
       <selection activeCell="B1048576" sqref="B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1048576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1048576">
         <v>1048576</v>
       </c>
@@ -49607,13 +49621,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="e">
         <f>10/0</f>
         <v>#DIV/0!</v>
@@ -49629,6 +49643,35 @@
       <c r="D1" t="e">
         <f>MONTH("string")</f>
         <v>#VALUE!</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="2">
+        <v>-123.45</v>
+      </c>
+      <c r="B1" s="3">
+        <v>67.89</v>
+      </c>
+      <c r="C1" s="4">
+        <v>42005</v>
+      </c>
+      <c r="D1" s="5">
+        <v>42735</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_data/test.xlsx
+++ b/test/test_data/test.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26606"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kennell/Projects/elixir/xlsxir Library/xlsxir/test/test_data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinn/Development/elixir/xlsxir/test/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,13 @@
     <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
     </ext>
@@ -32,12 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>string one</t>
   </si>
   <si>
     <t>string two</t>
+  </si>
+  <si>
+    <t>Conditional</t>
   </si>
 </sst>
 </file>
@@ -45,15 +52,22 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
-    <numFmt numFmtId="171" formatCode="\_x0009_\ ####.#"/>
-    <numFmt numFmtId="173" formatCode="#.0#"/>
-    <numFmt numFmtId="174" formatCode="yyyy"/>
-    <numFmt numFmtId="175" formatCode="mmm/dd/yyyy"/>
+    <numFmt numFmtId="164" formatCode="\_x0009_\ ####.#"/>
+    <numFmt numFmtId="165" formatCode="#.0#"/>
+    <numFmt numFmtId="166" formatCode="yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmm/dd/yyyy"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -79,18 +93,40 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="174" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="175" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -49654,7 +49690,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
@@ -49677,4 +49713,32 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+      <formula>"Conditional"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/test_data/test.xlsx
+++ b/test/test_data/test.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27426"/>
-  <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/justinn/Development/elixir/xlsxir/test/test_data/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" activeTab="7"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,16 +14,17 @@
     <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
     <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
     </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -105,17 +101,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -182,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -217,7 +203,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -394,7 +380,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -408,9 +394,9 @@
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -430,6 +416,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -441,9 +432,9 @@
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>1</v>
       </c>
@@ -451,7 +442,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>3</v>
       </c>
@@ -461,6 +452,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -472,9 +468,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:16384" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:16384">
       <c r="A1">
         <v>1</v>
       </c>
@@ -49630,6 +49626,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -49641,15 +49642,20 @@
       <selection activeCell="B1048576" sqref="B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.75"/>
   <sheetData>
-    <row r="1048576" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1048576" spans="1:1">
       <c r="A1048576">
         <v>1048576</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -49661,9 +49667,9 @@
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="e">
         <f>10/0</f>
         <v>#DIV/0!</v>
@@ -49683,6 +49689,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -49694,9 +49705,9 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" s="2">
         <v>-123.45</v>
       </c>
@@ -49712,6 +49723,11 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -49719,26 +49735,59 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1">
       <c r="A1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="b">
+        <v>1</v>
+      </c>
+      <c r="B1" t="b">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/test/test_data/test.xlsx
+++ b/test/test_data/test.xlsx
@@ -1,44 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20910"/>
-  <workbookPr autoCompressPictures="0"/>
+  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
+  <workbookPr date1904="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25520" windowHeight="15540" activeTab="7"/>
+    <workbookView activeTab="5" windowWidth="12800" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="6" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="7" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="9" r:id="rId8"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
+    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
-      <x14:workbookPr defaultImageDpi="32767"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sheet1"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Sheet2"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Sheet3"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Sheet4"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="4">"Sheet5"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="5">"Sheet6"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="6">"Sheet7"</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
+    <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Sheet8"</definedName>
+  </definedNames>
+  <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
+  <webPublishing allowPng="1" css="0" codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
-  <si>
-    <t>string one</t>
-  </si>
-  <si>
-    <t>string two</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
   <si>
     <t>Conditional</t>
   </si>
@@ -46,27 +48,34 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="4">
-    <numFmt numFmtId="164" formatCode="\_x0009_\ ####.#"/>
-    <numFmt numFmtId="165" formatCode="#.0#"/>
-    <numFmt numFmtId="166" formatCode="yyyy"/>
-    <numFmt numFmtId="167" formatCode="mmm/dd/yyyy"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt formatCode="\_x0009_\ ####.#" numFmtId="100"/>
+    <numFmt formatCode="#.0#" numFmtId="101"/>
+    <numFmt formatCode="yyyy" numFmtId="102"/>
+    <numFmt formatCode="mmm/dd/yyyy" numFmtId="103"/>
+    <numFmt formatCode="[$-80A]hh:mm:ss\ AM/PM;@" numFmtId="104"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="0"/>
+      <i val="0"/>
+      <u val="none"/>
+      <color rgb="FF000000"/>
+      <name val="Sans"/>
+      <vertAlign val="baseline"/>
+      <sz val="10"/>
+      <strike val="0"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b val="0"/>
+      <i val="0"/>
+      <u val="none"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <vertAlign val="baseline"/>
+      <sz val="11"/>
+      <strike val="0"/>
     </font>
   </fonts>
   <fills count="2">
@@ -78,330 +87,96 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
+    <border diagonalUp="0" diagonalDown="0">
+      <left style="none">
+        <color rgb="FFC7C7C7"/>
+      </left>
+      <right style="none">
+        <color rgb="FFC7C7C7"/>
+      </right>
+      <top style="none">
+        <color rgb="FFC7C7C7"/>
+      </top>
+      <bottom style="none">
+        <color rgb="FFC7C7C7"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+  <cellXfs count="9">
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="14" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="100" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="101" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="102" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="103" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="104" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
+    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="100" xfId="0">
+      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
-        <patternFill>
+        <patternFill patternType="solid">
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
   </dxfs>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="44546A"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="5B9BD5"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="ED7D31"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="FFC000"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4472C4"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="70AD47"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0563C1"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="954F72"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="Yu Gothic"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="DengXian"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
-</a:theme>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>string one</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>string two</t>
+        </is>
       </c>
       <c r="C1">
         <v>10</v>
@@ -410,29 +185,37 @@
         <f>4*5</f>
         <v>20</v>
       </c>
-      <c r="E1" s="1">
+      <c r="E1" s="2">
         <v>42370</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1">
@@ -451,24 +234,32 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
   <dimension ref="A1:XFD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:16384">
       <c r="A1">
@@ -49625,24 +49416,32 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
   <dimension ref="A1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1048576" sqref="B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+  </cols>
   <sheetData>
     <row r="1048576" spans="1:1">
       <c r="A1048576">
@@ -49650,24 +49449,32 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="e">
@@ -49688,91 +49495,118 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView workbookViewId="0" tabSelected="1">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="4" style="1" width="9.142307692307693"/>
+    <col min="5" max="5" style="1" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" style="1" width="9.142307692307693"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="2">
+    <row r="1" spans="1:5">
+      <c r="A1" s="3">
         <v>-123.45</v>
       </c>
-      <c r="B1" s="3">
-        <v>67.89</v>
-      </c>
-      <c r="C1" s="4">
+      <c r="B1" s="4">
+        <v>67.890000000000001</v>
+      </c>
+      <c r="C1" s="5">
         <v>42005</v>
       </c>
-      <c r="D1" s="5">
+      <c r="D1" s="6">
         <v>42735</v>
+      </c>
+      <c r="E1" s="7">
+        <v>0.63385416666666672</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
   <cols>
-    <col min="1" max="1" width="9.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" style="1" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" style="1" width="9.142307692307693"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="6" t="s">
-        <v>2</v>
+      <c r="A1" s="8" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
   <conditionalFormatting sqref="A1">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" stopIfTrue="1" operator="equal">
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
+  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
+  <sheetPr>
+    <pageSetUpPr fitToPage="0"/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultRowHeight="14.1"/>
+  <cols>
+    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="b">
@@ -49783,11 +49617,13 @@
       </c>
     </row>
   </sheetData>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
+  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <extLst>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
-      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
-    </ext>
-  </extLst>
+  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;A</oddHeader>
+    <oddFooter>&amp;CPage &amp;P</oddFooter>
+  </headerFooter>
 </worksheet>
 </file>
--- a/test/test_data/test.xlsx
+++ b/test/test_data/test.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion lastEdited="4" lowestEdited="4" rupBuild="3820"/>
-  <workbookPr date1904="0"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView activeTab="5" windowWidth="12800" windowHeight="4410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="4410"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,31 +18,37 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="0">"Sheet1"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="1">"Sheet2"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="2">"Sheet3"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="3">"Sheet4"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="4">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="4">"Sheet5"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="5">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="5">"Sheet6"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="6">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="6">"Sheet7"</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">#REF!</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Sheet8"</definedName>
   </definedNames>
-  <calcPr calcMode="auto" iterate="1" iterateCount="100" iterateDelta="0.001"/>
-  <webPublishing allowPng="1" css="0" codePage="1252"/>
+  <calcPr calcId="125725"/>
+  <webPublishing css="0" allowPng="1" codePage="1252"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="1" count="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Conditional</t>
+  </si>
+  <si>
+    <t>string one</t>
+  </si>
+  <si>
+    <t>string two</t>
   </si>
 </sst>
 </file>
@@ -50,32 +56,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt formatCode="\_x0009_\ ####.#" numFmtId="100"/>
-    <numFmt formatCode="#.0#" numFmtId="101"/>
-    <numFmt formatCode="yyyy" numFmtId="102"/>
-    <numFmt formatCode="mmm/dd/yyyy" numFmtId="103"/>
-    <numFmt formatCode="[$-80A]hh:mm:ss\ AM/PM;@" numFmtId="104"/>
+    <numFmt numFmtId="164" formatCode="\_x0009_\ ####.#"/>
+    <numFmt numFmtId="165" formatCode="#.0#"/>
+    <numFmt numFmtId="166" formatCode="yyyy"/>
+    <numFmt numFmtId="167" formatCode="mmm/dd/yyyy"/>
+    <numFmt numFmtId="168" formatCode="[$-80A]hh:mm:ss\ AM/PM;@"/>
   </numFmts>
   <fonts count="2">
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
-      <vertAlign val="baseline"/>
-      <sz val="10"/>
-      <strike val="0"/>
     </font>
     <font>
-      <b val="0"/>
-      <i val="0"/>
-      <u val="none"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <vertAlign val="baseline"/>
-      <sz val="11"/>
-      <strike val="0"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -87,55 +84,32 @@
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="0" diagonalDown="0">
-      <left style="none">
-        <color rgb="FFC7C7C7"/>
-      </left>
-      <right style="none">
-        <color rgb="FFC7C7C7"/>
-      </right>
-      <top style="none">
-        <color rgb="FFC7C7C7"/>
-      </top>
-      <bottom style="none">
-        <color rgb="FFC7C7C7"/>
-      </bottom>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="14" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="101" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="102" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="103" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="104" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
-    <xf applyAlignment="1" applyBorder="1" applyFont="1" applyFill="1" applyNumberFormat="1" fontId="1" fillId="0" borderId="0" numFmtId="100" xfId="0">
-      <alignment horizontal="general" vertical="bottom" wrapText="0" shrinkToFit="0" textRotation="0" indent="0"/>
-    </xf>
+  <cellXfs count="10">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="166" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
   <dxfs count="1">
     <dxf>
       <font>
@@ -148,35 +122,310 @@
       </fill>
     </dxf>
   </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>string one</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>string two</t>
-        </is>
+      <c r="A1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
       </c>
       <c r="C1">
         <v>10</v>
@@ -191,9 +440,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -202,19 +450,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -235,9 +480,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -246,19 +490,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:XFD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384">
@@ -49417,9 +49658,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -49428,19 +49668,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1048576" sqref="B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1048576" spans="1:1">
@@ -49450,9 +49687,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -49461,19 +49697,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -49496,9 +49729,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -49507,29 +49739,28 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="4" style="1" width="9.142307692307693"/>
-    <col min="5" max="5" style="1" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3">
         <v>-123.45</v>
       </c>
       <c r="B1" s="4">
-        <v>67.890000000000001</v>
+        <v>67.89</v>
       </c>
       <c r="C1" s="5">
         <v>42005</v>
@@ -49539,13 +49770,15 @@
       </c>
       <c r="E1" s="7">
         <v>0.63385416666666672</v>
+      </c>
+      <c r="F1" s="9">
+        <v>41261.601388888899</v>
       </c>
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -49554,20 +49787,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" style="1" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -49582,9 +49812,8 @@
       <formula>"Conditional"</formula>
     </cfRule>
   </conditionalFormatting>
-  <printOptions/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>
@@ -49593,19 +49822,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:gnmx="http://www.gnumeric.org/ext/spreadsheetml">
-  <sheetPr>
-    <pageSetUpPr fitToPage="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.1"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" style="1" width="9.142307692307693"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -49618,9 +49844,8 @@
     </row>
   </sheetData>
   <sheetProtection formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" selectLockedCells="1" sort="0" autoFilter="0" pivotTables="0" selectUnlockedCells="1"/>
-  <printOptions/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup blackAndWhite="0" cellComments="asDisplayed" draft="0" errors="displayed" orientation="portrait" pageOrder="downThenOver" paperSize="1" scale="100" useFirstPageNumber="0"/>
+  <pageSetup orientation="portrait" cellComments="asDisplayed"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;A</oddHeader>
     <oddFooter>&amp;CPage &amp;P</oddFooter>

--- a/test/test_data/test.xlsx
+++ b/test/test_data/test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="4410"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="4410" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -15,6 +15,7 @@
     <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Conditional</t>
   </si>
@@ -49,6 +50,66 @@
   </si>
   <si>
     <t>string two</t>
+  </si>
+  <si>
+    <t>Col1</t>
+  </si>
+  <si>
+    <t>Col2</t>
+  </si>
+  <si>
+    <t>Col3</t>
+  </si>
+  <si>
+    <t>Col4</t>
+  </si>
+  <si>
+    <t>Col5</t>
+  </si>
+  <si>
+    <t>Col6</t>
+  </si>
+  <si>
+    <t>Col7</t>
+  </si>
+  <si>
+    <t>Col8</t>
+  </si>
+  <si>
+    <t>Col9</t>
+  </si>
+  <si>
+    <t>Col10</t>
+  </si>
+  <si>
+    <t>Col11</t>
+  </si>
+  <si>
+    <t>Col12</t>
+  </si>
+  <si>
+    <t>Col13</t>
+  </si>
+  <si>
+    <t>Col14</t>
+  </si>
+  <si>
+    <t>Col15</t>
+  </si>
+  <si>
+    <t>Some</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
+    <t>Interspersed</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t>String</t>
   </si>
 </sst>
 </file>
@@ -62,7 +123,7 @@
     <numFmt numFmtId="167" formatCode="mmm/dd/yyyy"/>
     <numFmt numFmtId="168" formatCode="[$-80A]hh:mm:ss\ AM/PM;@"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -73,6 +134,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Sans"/>
     </font>
   </fonts>
   <fills count="2">
@@ -95,7 +163,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -106,6 +174,18 @@
     <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,7 +493,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -49851,4 +49931,3075 @@
     <oddFooter>&amp;CPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O51"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="14" width="9.140625" style="10"/>
+    <col min="15" max="15" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="K1" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="N1" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="O1" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10">
+        <v>2</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3</v>
+      </c>
+      <c r="D2" s="10">
+        <v>4</v>
+      </c>
+      <c r="E2" s="10">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10">
+        <v>6</v>
+      </c>
+      <c r="G2" s="10">
+        <v>7</v>
+      </c>
+      <c r="H2" s="10">
+        <v>8</v>
+      </c>
+      <c r="I2" s="10">
+        <v>9</v>
+      </c>
+      <c r="J2" s="10">
+        <v>10</v>
+      </c>
+      <c r="K2" s="10">
+        <v>11</v>
+      </c>
+      <c r="L2" s="10">
+        <v>12</v>
+      </c>
+      <c r="M2" s="10">
+        <v>13</v>
+      </c>
+      <c r="N2" s="10">
+        <v>14</v>
+      </c>
+      <c r="O2" s="10">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="10">
+        <f>B2+A3</f>
+        <v>4</v>
+      </c>
+      <c r="C3" s="10">
+        <f t="shared" ref="C3:O3" si="0">C2+B3</f>
+        <v>7</v>
+      </c>
+      <c r="D3" s="10">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="E3" s="10">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F3" s="10">
+        <f t="shared" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="G3" s="10">
+        <f t="shared" si="0"/>
+        <v>29</v>
+      </c>
+      <c r="H3" s="10">
+        <f t="shared" si="0"/>
+        <v>37</v>
+      </c>
+      <c r="I3" s="10">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+      <c r="J3" s="10">
+        <f t="shared" si="0"/>
+        <v>56</v>
+      </c>
+      <c r="K3" s="10">
+        <f t="shared" si="0"/>
+        <v>67</v>
+      </c>
+      <c r="L3" s="10">
+        <f t="shared" si="0"/>
+        <v>79</v>
+      </c>
+      <c r="M3" s="10">
+        <f t="shared" si="0"/>
+        <v>92</v>
+      </c>
+      <c r="N3" s="10">
+        <f t="shared" si="0"/>
+        <v>106</v>
+      </c>
+      <c r="O3" s="10">
+        <f t="shared" si="0"/>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="10">
+        <f t="shared" ref="B4:B51" si="1">B3+A4</f>
+        <v>7</v>
+      </c>
+      <c r="C4" s="10">
+        <f t="shared" ref="C4:C51" si="2">C3+B4</f>
+        <v>14</v>
+      </c>
+      <c r="D4" s="10">
+        <f t="shared" ref="D4:D51" si="3">D3+C4</f>
+        <v>25</v>
+      </c>
+      <c r="E4" s="10">
+        <f t="shared" ref="E4:E51" si="4">E3+D4</f>
+        <v>41</v>
+      </c>
+      <c r="F4" s="10">
+        <f t="shared" ref="F4:F51" si="5">F3+E4</f>
+        <v>63</v>
+      </c>
+      <c r="G4" s="10">
+        <f t="shared" ref="G4:G51" si="6">G3+F4</f>
+        <v>92</v>
+      </c>
+      <c r="H4" s="10">
+        <f t="shared" ref="H4:H51" si="7">H3+G4</f>
+        <v>129</v>
+      </c>
+      <c r="I4" s="10">
+        <f t="shared" ref="I4:I51" si="8">I3+H4</f>
+        <v>175</v>
+      </c>
+      <c r="J4" s="10">
+        <f t="shared" ref="J4:J51" si="9">J3+I4</f>
+        <v>231</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K51" si="10">K3+J4</f>
+        <v>298</v>
+      </c>
+      <c r="L4" s="10">
+        <f t="shared" ref="L4:L51" si="11">L3+K4</f>
+        <v>377</v>
+      </c>
+      <c r="M4" s="10">
+        <f t="shared" ref="M4:M51" si="12">M3+L4</f>
+        <v>469</v>
+      </c>
+      <c r="N4" s="10">
+        <f t="shared" ref="N4:N51" si="13">N3+M4</f>
+        <v>575</v>
+      </c>
+      <c r="O4" s="10">
+        <f t="shared" ref="O4:O51" si="14">O3+N4</f>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="10">
+        <f t="shared" si="1"/>
+        <v>11</v>
+      </c>
+      <c r="C5" s="10">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="D5" s="10">
+        <f t="shared" si="3"/>
+        <v>50</v>
+      </c>
+      <c r="E5" s="10">
+        <f t="shared" si="4"/>
+        <v>91</v>
+      </c>
+      <c r="F5" s="10">
+        <f t="shared" si="5"/>
+        <v>154</v>
+      </c>
+      <c r="G5" s="10">
+        <f t="shared" si="6"/>
+        <v>246</v>
+      </c>
+      <c r="H5" s="10">
+        <f t="shared" si="7"/>
+        <v>375</v>
+      </c>
+      <c r="I5" s="10">
+        <f t="shared" si="8"/>
+        <v>550</v>
+      </c>
+      <c r="J5" s="10">
+        <f t="shared" si="9"/>
+        <v>781</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="10"/>
+        <v>1079</v>
+      </c>
+      <c r="L5" s="10">
+        <f t="shared" si="11"/>
+        <v>1456</v>
+      </c>
+      <c r="M5" s="10">
+        <f t="shared" si="12"/>
+        <v>1925</v>
+      </c>
+      <c r="N5" s="10">
+        <f t="shared" si="13"/>
+        <v>2500</v>
+      </c>
+      <c r="O5" s="10">
+        <f t="shared" si="14"/>
+        <v>3196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="10">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="C6" s="10">
+        <f t="shared" si="2"/>
+        <v>41</v>
+      </c>
+      <c r="D6" s="10">
+        <f t="shared" si="3"/>
+        <v>91</v>
+      </c>
+      <c r="E6" s="10">
+        <f t="shared" si="4"/>
+        <v>182</v>
+      </c>
+      <c r="F6" s="10">
+        <f t="shared" si="5"/>
+        <v>336</v>
+      </c>
+      <c r="G6" s="10">
+        <f t="shared" si="6"/>
+        <v>582</v>
+      </c>
+      <c r="H6" s="10">
+        <f t="shared" si="7"/>
+        <v>957</v>
+      </c>
+      <c r="I6" s="10">
+        <f t="shared" si="8"/>
+        <v>1507</v>
+      </c>
+      <c r="J6" s="10">
+        <f t="shared" si="9"/>
+        <v>2288</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="10"/>
+        <v>3367</v>
+      </c>
+      <c r="L6" s="10">
+        <f t="shared" si="11"/>
+        <v>4823</v>
+      </c>
+      <c r="M6" s="10">
+        <f t="shared" si="12"/>
+        <v>6748</v>
+      </c>
+      <c r="N6" s="10">
+        <f t="shared" si="13"/>
+        <v>9248</v>
+      </c>
+      <c r="O6" s="10">
+        <f t="shared" si="14"/>
+        <v>12444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="10">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+      <c r="C7" s="10">
+        <f t="shared" si="2"/>
+        <v>63</v>
+      </c>
+      <c r="D7" s="10">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="E7" s="10">
+        <f t="shared" si="4"/>
+        <v>336</v>
+      </c>
+      <c r="F7" s="10">
+        <f t="shared" si="5"/>
+        <v>672</v>
+      </c>
+      <c r="G7" s="10">
+        <f t="shared" si="6"/>
+        <v>1254</v>
+      </c>
+      <c r="H7" s="10">
+        <f t="shared" si="7"/>
+        <v>2211</v>
+      </c>
+      <c r="I7" s="10">
+        <f t="shared" si="8"/>
+        <v>3718</v>
+      </c>
+      <c r="J7" s="10">
+        <f t="shared" si="9"/>
+        <v>6006</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="10"/>
+        <v>9373</v>
+      </c>
+      <c r="L7" s="10">
+        <f t="shared" si="11"/>
+        <v>14196</v>
+      </c>
+      <c r="M7" s="10">
+        <f t="shared" si="12"/>
+        <v>20944</v>
+      </c>
+      <c r="N7" s="10">
+        <f t="shared" si="13"/>
+        <v>30192</v>
+      </c>
+      <c r="O7" s="10">
+        <f t="shared" si="14"/>
+        <v>42636</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="10">
+        <f t="shared" si="1"/>
+        <v>29</v>
+      </c>
+      <c r="C8" s="10">
+        <f t="shared" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="D8" s="10">
+        <f t="shared" si="3"/>
+        <v>246</v>
+      </c>
+      <c r="E8" s="10">
+        <f t="shared" si="4"/>
+        <v>582</v>
+      </c>
+      <c r="F8" s="10">
+        <f t="shared" si="5"/>
+        <v>1254</v>
+      </c>
+      <c r="G8" s="10">
+        <f t="shared" si="6"/>
+        <v>2508</v>
+      </c>
+      <c r="H8" s="10">
+        <f t="shared" si="7"/>
+        <v>4719</v>
+      </c>
+      <c r="I8" s="10">
+        <f t="shared" si="8"/>
+        <v>8437</v>
+      </c>
+      <c r="J8" s="10">
+        <f t="shared" si="9"/>
+        <v>14443</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="10"/>
+        <v>23816</v>
+      </c>
+      <c r="L8" s="10">
+        <f t="shared" si="11"/>
+        <v>38012</v>
+      </c>
+      <c r="M8" s="10">
+        <f t="shared" si="12"/>
+        <v>58956</v>
+      </c>
+      <c r="N8" s="10">
+        <f t="shared" si="13"/>
+        <v>89148</v>
+      </c>
+      <c r="O8" s="10">
+        <f t="shared" si="14"/>
+        <v>131784</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="10">
+        <f t="shared" si="1"/>
+        <v>37</v>
+      </c>
+      <c r="C9" s="10">
+        <f t="shared" si="2"/>
+        <v>129</v>
+      </c>
+      <c r="D9" s="10">
+        <f t="shared" si="3"/>
+        <v>375</v>
+      </c>
+      <c r="E9" s="10">
+        <f t="shared" si="4"/>
+        <v>957</v>
+      </c>
+      <c r="F9" s="10">
+        <f t="shared" si="5"/>
+        <v>2211</v>
+      </c>
+      <c r="G9" s="10">
+        <f t="shared" si="6"/>
+        <v>4719</v>
+      </c>
+      <c r="H9" s="10">
+        <f t="shared" si="7"/>
+        <v>9438</v>
+      </c>
+      <c r="I9" s="10">
+        <f t="shared" si="8"/>
+        <v>17875</v>
+      </c>
+      <c r="J9" s="10">
+        <f t="shared" si="9"/>
+        <v>32318</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="10"/>
+        <v>56134</v>
+      </c>
+      <c r="L9" s="10">
+        <f t="shared" si="11"/>
+        <v>94146</v>
+      </c>
+      <c r="M9" s="10">
+        <f t="shared" si="12"/>
+        <v>153102</v>
+      </c>
+      <c r="N9" s="10">
+        <f t="shared" si="13"/>
+        <v>242250</v>
+      </c>
+      <c r="O9" s="10">
+        <f t="shared" si="14"/>
+        <v>374034</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="C10" s="10">
+        <f t="shared" si="2"/>
+        <v>175</v>
+      </c>
+      <c r="D10" s="10">
+        <f t="shared" si="3"/>
+        <v>550</v>
+      </c>
+      <c r="E10" s="10">
+        <f t="shared" si="4"/>
+        <v>1507</v>
+      </c>
+      <c r="F10" s="10">
+        <f t="shared" si="5"/>
+        <v>3718</v>
+      </c>
+      <c r="G10" s="10">
+        <f t="shared" si="6"/>
+        <v>8437</v>
+      </c>
+      <c r="H10" s="10">
+        <f t="shared" si="7"/>
+        <v>17875</v>
+      </c>
+      <c r="I10" s="10">
+        <f t="shared" si="8"/>
+        <v>35750</v>
+      </c>
+      <c r="J10" s="10">
+        <f t="shared" si="9"/>
+        <v>68068</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="10"/>
+        <v>124202</v>
+      </c>
+      <c r="L10" s="10">
+        <f t="shared" si="11"/>
+        <v>218348</v>
+      </c>
+      <c r="M10" s="10">
+        <f t="shared" si="12"/>
+        <v>371450</v>
+      </c>
+      <c r="N10" s="10">
+        <f t="shared" si="13"/>
+        <v>613700</v>
+      </c>
+      <c r="O10" s="10">
+        <f t="shared" si="14"/>
+        <v>987734</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="10">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="C11" s="10">
+        <f t="shared" si="2"/>
+        <v>231</v>
+      </c>
+      <c r="D11" s="10">
+        <f t="shared" si="3"/>
+        <v>781</v>
+      </c>
+      <c r="E11" s="10">
+        <f t="shared" si="4"/>
+        <v>2288</v>
+      </c>
+      <c r="F11" s="10">
+        <f t="shared" si="5"/>
+        <v>6006</v>
+      </c>
+      <c r="G11" s="10">
+        <f t="shared" si="6"/>
+        <v>14443</v>
+      </c>
+      <c r="H11" s="10">
+        <f t="shared" si="7"/>
+        <v>32318</v>
+      </c>
+      <c r="I11" s="10">
+        <f t="shared" si="8"/>
+        <v>68068</v>
+      </c>
+      <c r="J11" s="10">
+        <f t="shared" si="9"/>
+        <v>136136</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="10"/>
+        <v>260338</v>
+      </c>
+      <c r="L11" s="10">
+        <f t="shared" si="11"/>
+        <v>478686</v>
+      </c>
+      <c r="M11" s="10">
+        <f t="shared" si="12"/>
+        <v>850136</v>
+      </c>
+      <c r="N11" s="10">
+        <f t="shared" si="13"/>
+        <v>1463836</v>
+      </c>
+      <c r="O11" s="10">
+        <f t="shared" si="14"/>
+        <v>2451570</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="10">
+        <f t="shared" si="1"/>
+        <v>67</v>
+      </c>
+      <c r="C12" s="10">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="D12" s="10">
+        <f t="shared" si="3"/>
+        <v>1079</v>
+      </c>
+      <c r="E12" s="10">
+        <f t="shared" si="4"/>
+        <v>3367</v>
+      </c>
+      <c r="F12" s="10">
+        <f t="shared" si="5"/>
+        <v>9373</v>
+      </c>
+      <c r="G12" s="10">
+        <f t="shared" si="6"/>
+        <v>23816</v>
+      </c>
+      <c r="H12" s="10">
+        <f t="shared" si="7"/>
+        <v>56134</v>
+      </c>
+      <c r="I12" s="10">
+        <f t="shared" si="8"/>
+        <v>124202</v>
+      </c>
+      <c r="J12" s="10">
+        <f t="shared" si="9"/>
+        <v>260338</v>
+      </c>
+      <c r="K12" s="10">
+        <f t="shared" si="10"/>
+        <v>520676</v>
+      </c>
+      <c r="L12" s="10">
+        <f t="shared" si="11"/>
+        <v>999362</v>
+      </c>
+      <c r="M12" s="10">
+        <f t="shared" si="12"/>
+        <v>1849498</v>
+      </c>
+      <c r="N12" s="10">
+        <f t="shared" si="13"/>
+        <v>3313334</v>
+      </c>
+      <c r="O12" s="10">
+        <f t="shared" si="14"/>
+        <v>5764904</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="10">
+        <f t="shared" si="1"/>
+        <v>79</v>
+      </c>
+      <c r="C13" s="10">
+        <f t="shared" si="2"/>
+        <v>377</v>
+      </c>
+      <c r="D13" s="10">
+        <f t="shared" si="3"/>
+        <v>1456</v>
+      </c>
+      <c r="E13" s="10">
+        <f t="shared" si="4"/>
+        <v>4823</v>
+      </c>
+      <c r="F13" s="10">
+        <f t="shared" si="5"/>
+        <v>14196</v>
+      </c>
+      <c r="G13" s="10">
+        <f t="shared" si="6"/>
+        <v>38012</v>
+      </c>
+      <c r="H13" s="10">
+        <f t="shared" si="7"/>
+        <v>94146</v>
+      </c>
+      <c r="I13" s="10">
+        <f t="shared" si="8"/>
+        <v>218348</v>
+      </c>
+      <c r="J13" s="10">
+        <f t="shared" si="9"/>
+        <v>478686</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="10"/>
+        <v>999362</v>
+      </c>
+      <c r="L13" s="10">
+        <f t="shared" si="11"/>
+        <v>1998724</v>
+      </c>
+      <c r="M13" s="10">
+        <f t="shared" si="12"/>
+        <v>3848222</v>
+      </c>
+      <c r="N13" s="10">
+        <f t="shared" si="13"/>
+        <v>7161556</v>
+      </c>
+      <c r="O13" s="10">
+        <f t="shared" si="14"/>
+        <v>12926460</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="10">
+        <f t="shared" si="1"/>
+        <v>92</v>
+      </c>
+      <c r="C14" s="10">
+        <f t="shared" si="2"/>
+        <v>469</v>
+      </c>
+      <c r="D14" s="10">
+        <f t="shared" si="3"/>
+        <v>1925</v>
+      </c>
+      <c r="E14" s="10">
+        <f t="shared" si="4"/>
+        <v>6748</v>
+      </c>
+      <c r="F14" s="10">
+        <f t="shared" si="5"/>
+        <v>20944</v>
+      </c>
+      <c r="G14" s="10">
+        <f t="shared" si="6"/>
+        <v>58956</v>
+      </c>
+      <c r="H14" s="10">
+        <f t="shared" si="7"/>
+        <v>153102</v>
+      </c>
+      <c r="I14" s="10">
+        <f t="shared" si="8"/>
+        <v>371450</v>
+      </c>
+      <c r="J14" s="10">
+        <f t="shared" si="9"/>
+        <v>850136</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="10"/>
+        <v>1849498</v>
+      </c>
+      <c r="L14" s="10">
+        <f t="shared" si="11"/>
+        <v>3848222</v>
+      </c>
+      <c r="M14" s="10">
+        <f t="shared" si="12"/>
+        <v>7696444</v>
+      </c>
+      <c r="N14" s="10">
+        <f t="shared" si="13"/>
+        <v>14858000</v>
+      </c>
+      <c r="O14" s="10">
+        <f t="shared" si="14"/>
+        <v>27784460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="10">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="C15" s="10">
+        <f t="shared" si="2"/>
+        <v>575</v>
+      </c>
+      <c r="D15" s="10">
+        <f t="shared" si="3"/>
+        <v>2500</v>
+      </c>
+      <c r="E15" s="10">
+        <f t="shared" si="4"/>
+        <v>9248</v>
+      </c>
+      <c r="F15" s="10">
+        <f t="shared" si="5"/>
+        <v>30192</v>
+      </c>
+      <c r="G15" s="10">
+        <f t="shared" si="6"/>
+        <v>89148</v>
+      </c>
+      <c r="H15" s="10">
+        <f t="shared" si="7"/>
+        <v>242250</v>
+      </c>
+      <c r="I15" s="10">
+        <f t="shared" si="8"/>
+        <v>613700</v>
+      </c>
+      <c r="J15" s="10">
+        <f t="shared" si="9"/>
+        <v>1463836</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="10"/>
+        <v>3313334</v>
+      </c>
+      <c r="L15" s="10">
+        <f t="shared" si="11"/>
+        <v>7161556</v>
+      </c>
+      <c r="M15" s="10">
+        <f t="shared" si="12"/>
+        <v>14858000</v>
+      </c>
+      <c r="N15" s="10">
+        <f t="shared" si="13"/>
+        <v>29716000</v>
+      </c>
+      <c r="O15" s="10">
+        <f t="shared" si="14"/>
+        <v>57500460</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="10">
+        <f t="shared" si="1"/>
+        <v>121</v>
+      </c>
+      <c r="C16" s="10">
+        <f t="shared" si="2"/>
+        <v>696</v>
+      </c>
+      <c r="D16" s="10">
+        <f t="shared" si="3"/>
+        <v>3196</v>
+      </c>
+      <c r="E16" s="10">
+        <f t="shared" si="4"/>
+        <v>12444</v>
+      </c>
+      <c r="F16" s="10">
+        <f t="shared" si="5"/>
+        <v>42636</v>
+      </c>
+      <c r="G16" s="10">
+        <f t="shared" si="6"/>
+        <v>131784</v>
+      </c>
+      <c r="H16" s="10">
+        <f t="shared" si="7"/>
+        <v>374034</v>
+      </c>
+      <c r="I16" s="10">
+        <f t="shared" si="8"/>
+        <v>987734</v>
+      </c>
+      <c r="J16" s="10">
+        <f t="shared" si="9"/>
+        <v>2451570</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="10"/>
+        <v>5764904</v>
+      </c>
+      <c r="L16" s="10">
+        <f t="shared" si="11"/>
+        <v>12926460</v>
+      </c>
+      <c r="M16" s="10">
+        <f t="shared" si="12"/>
+        <v>27784460</v>
+      </c>
+      <c r="N16" s="10">
+        <f t="shared" si="13"/>
+        <v>57500460</v>
+      </c>
+      <c r="O16" s="10">
+        <f t="shared" si="14"/>
+        <v>115000920</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="10">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
+      <c r="C17" s="10">
+        <f t="shared" si="2"/>
+        <v>833</v>
+      </c>
+      <c r="D17" s="10">
+        <f t="shared" si="3"/>
+        <v>4029</v>
+      </c>
+      <c r="E17" s="10">
+        <f t="shared" si="4"/>
+        <v>16473</v>
+      </c>
+      <c r="F17" s="10">
+        <f t="shared" si="5"/>
+        <v>59109</v>
+      </c>
+      <c r="G17" s="10">
+        <f t="shared" si="6"/>
+        <v>190893</v>
+      </c>
+      <c r="H17" s="10">
+        <f t="shared" si="7"/>
+        <v>564927</v>
+      </c>
+      <c r="I17" s="10">
+        <f t="shared" si="8"/>
+        <v>1552661</v>
+      </c>
+      <c r="J17" s="10">
+        <f t="shared" si="9"/>
+        <v>4004231</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="10"/>
+        <v>9769135</v>
+      </c>
+      <c r="L17" s="10">
+        <f t="shared" si="11"/>
+        <v>22695595</v>
+      </c>
+      <c r="M17" s="10">
+        <f t="shared" si="12"/>
+        <v>50480055</v>
+      </c>
+      <c r="N17" s="10">
+        <f t="shared" si="13"/>
+        <v>107980515</v>
+      </c>
+      <c r="O17" s="10">
+        <f t="shared" si="14"/>
+        <v>222981435</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="10">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
+      <c r="C18" s="10">
+        <f t="shared" si="2"/>
+        <v>987</v>
+      </c>
+      <c r="D18" s="10">
+        <f t="shared" si="3"/>
+        <v>5016</v>
+      </c>
+      <c r="E18" s="10">
+        <f t="shared" si="4"/>
+        <v>21489</v>
+      </c>
+      <c r="F18" s="10">
+        <f t="shared" si="5"/>
+        <v>80598</v>
+      </c>
+      <c r="G18" s="10">
+        <f t="shared" si="6"/>
+        <v>271491</v>
+      </c>
+      <c r="H18" s="10">
+        <f t="shared" si="7"/>
+        <v>836418</v>
+      </c>
+      <c r="I18" s="10">
+        <f t="shared" si="8"/>
+        <v>2389079</v>
+      </c>
+      <c r="J18" s="10">
+        <f t="shared" si="9"/>
+        <v>6393310</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="L18" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="N18" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="10">
+        <f t="shared" si="1"/>
+        <v>172</v>
+      </c>
+      <c r="C19" s="10">
+        <f t="shared" si="2"/>
+        <v>1159</v>
+      </c>
+      <c r="D19" s="10">
+        <f t="shared" si="3"/>
+        <v>6175</v>
+      </c>
+      <c r="E19" s="10">
+        <f t="shared" si="4"/>
+        <v>27664</v>
+      </c>
+      <c r="F19" s="10">
+        <f t="shared" si="5"/>
+        <v>108262</v>
+      </c>
+      <c r="G19" s="10">
+        <f t="shared" si="6"/>
+        <v>379753</v>
+      </c>
+      <c r="H19" s="10">
+        <f t="shared" si="7"/>
+        <v>1216171</v>
+      </c>
+      <c r="I19" s="10">
+        <f t="shared" si="8"/>
+        <v>3605250</v>
+      </c>
+      <c r="O19" s="10">
+        <f t="shared" ref="O19:O26" si="15">O20+O21</f>
+        <v>5702887</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="10">
+        <f t="shared" si="1"/>
+        <v>191</v>
+      </c>
+      <c r="C20" s="10">
+        <f t="shared" si="2"/>
+        <v>1350</v>
+      </c>
+      <c r="D20" s="10">
+        <f t="shared" si="3"/>
+        <v>7525</v>
+      </c>
+      <c r="E20" s="10">
+        <f t="shared" si="4"/>
+        <v>35189</v>
+      </c>
+      <c r="F20" s="10">
+        <f t="shared" si="5"/>
+        <v>143451</v>
+      </c>
+      <c r="G20" s="10">
+        <f t="shared" si="6"/>
+        <v>523204</v>
+      </c>
+      <c r="H20" s="10">
+        <f t="shared" si="7"/>
+        <v>1739375</v>
+      </c>
+      <c r="I20" s="10">
+        <f t="shared" si="8"/>
+        <v>5344625</v>
+      </c>
+      <c r="J20" s="13">
+        <v>0.3354166666666667</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" ref="K19:K26" si="16">L20+K21</f>
+        <v>78175076</v>
+      </c>
+      <c r="L20" s="10">
+        <f t="shared" ref="L19:L26" si="17">M20+L21</f>
+        <v>29860634</v>
+      </c>
+      <c r="M20" s="10">
+        <f t="shared" ref="M19:M26" si="18">N20+M21</f>
+        <v>11405772</v>
+      </c>
+      <c r="N20" s="10">
+        <f t="shared" ref="N19:N26" si="19">N21+N22</f>
+        <v>4356618</v>
+      </c>
+      <c r="O20" s="10">
+        <f t="shared" si="15"/>
+        <v>3524578</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="10">
+        <f t="shared" si="1"/>
+        <v>211</v>
+      </c>
+      <c r="C21" s="10">
+        <f t="shared" si="2"/>
+        <v>1561</v>
+      </c>
+      <c r="D21" s="10">
+        <f t="shared" si="3"/>
+        <v>9086</v>
+      </c>
+      <c r="E21" s="10">
+        <f t="shared" si="4"/>
+        <v>44275</v>
+      </c>
+      <c r="F21" s="10">
+        <f t="shared" si="5"/>
+        <v>187726</v>
+      </c>
+      <c r="G21" s="10">
+        <f t="shared" si="6"/>
+        <v>710930</v>
+      </c>
+      <c r="H21" s="10">
+        <f t="shared" si="7"/>
+        <v>2450305</v>
+      </c>
+      <c r="I21" s="10">
+        <f t="shared" si="8"/>
+        <v>7794930</v>
+      </c>
+      <c r="J21" s="12">
+        <v>26640</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="16"/>
+        <v>48314442</v>
+      </c>
+      <c r="L21" s="10">
+        <f t="shared" si="17"/>
+        <v>18454862</v>
+      </c>
+      <c r="M21" s="10">
+        <f t="shared" si="18"/>
+        <v>7049154</v>
+      </c>
+      <c r="N21" s="10">
+        <f t="shared" si="19"/>
+        <v>2692538</v>
+      </c>
+      <c r="O21" s="10">
+        <f t="shared" si="15"/>
+        <v>2178309</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="10">
+        <f t="shared" si="1"/>
+        <v>232</v>
+      </c>
+      <c r="C22" s="10">
+        <f t="shared" si="2"/>
+        <v>1793</v>
+      </c>
+      <c r="D22" s="10">
+        <f t="shared" si="3"/>
+        <v>10879</v>
+      </c>
+      <c r="E22" s="10">
+        <f t="shared" si="4"/>
+        <v>55154</v>
+      </c>
+      <c r="F22" s="10">
+        <f t="shared" si="5"/>
+        <v>242880</v>
+      </c>
+      <c r="G22" s="10">
+        <f t="shared" si="6"/>
+        <v>953810</v>
+      </c>
+      <c r="H22" s="10">
+        <f t="shared" si="7"/>
+        <v>3404115</v>
+      </c>
+      <c r="I22" s="10">
+        <f t="shared" si="8"/>
+        <v>11199045</v>
+      </c>
+      <c r="J22" s="10">
+        <f t="shared" ref="J19:J26" si="20">K22+J23</f>
+        <v>78163168</v>
+      </c>
+      <c r="K22" s="10">
+        <f t="shared" si="16"/>
+        <v>29859580</v>
+      </c>
+      <c r="L22" s="10">
+        <f t="shared" si="17"/>
+        <v>11405708</v>
+      </c>
+      <c r="M22" s="10">
+        <f t="shared" si="18"/>
+        <v>4356616</v>
+      </c>
+      <c r="N22" s="10">
+        <f t="shared" si="19"/>
+        <v>1664080</v>
+      </c>
+      <c r="O22" s="10">
+        <f t="shared" si="15"/>
+        <v>1346269</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="10">
+        <f t="shared" si="1"/>
+        <v>254</v>
+      </c>
+      <c r="C23" s="10">
+        <f t="shared" si="2"/>
+        <v>2047</v>
+      </c>
+      <c r="D23" s="10">
+        <f t="shared" si="3"/>
+        <v>12926</v>
+      </c>
+      <c r="E23" s="10">
+        <f t="shared" si="4"/>
+        <v>68080</v>
+      </c>
+      <c r="F23" s="10">
+        <f t="shared" si="5"/>
+        <v>310960</v>
+      </c>
+      <c r="G23" s="10">
+        <f t="shared" si="6"/>
+        <v>1264770</v>
+      </c>
+      <c r="H23" s="10">
+        <f t="shared" si="7"/>
+        <v>4668885</v>
+      </c>
+      <c r="I23" s="10">
+        <f t="shared" si="8"/>
+        <v>15867930</v>
+      </c>
+      <c r="J23" s="10">
+        <f t="shared" si="20"/>
+        <v>48303588</v>
+      </c>
+      <c r="K23" s="10">
+        <f t="shared" si="16"/>
+        <v>18453872</v>
+      </c>
+      <c r="L23" s="10">
+        <f t="shared" si="17"/>
+        <v>7049092</v>
+      </c>
+      <c r="M23" s="10">
+        <f t="shared" si="18"/>
+        <v>2692536</v>
+      </c>
+      <c r="N23" s="10">
+        <f t="shared" si="19"/>
+        <v>1028458</v>
+      </c>
+      <c r="O23" s="10">
+        <f t="shared" si="15"/>
+        <v>832040</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="10">
+        <f t="shared" si="1"/>
+        <v>277</v>
+      </c>
+      <c r="C24" s="10">
+        <f t="shared" si="2"/>
+        <v>2324</v>
+      </c>
+      <c r="D24" s="10">
+        <f t="shared" si="3"/>
+        <v>15250</v>
+      </c>
+      <c r="E24" s="10">
+        <f t="shared" si="4"/>
+        <v>83330</v>
+      </c>
+      <c r="F24" s="10">
+        <f t="shared" si="5"/>
+        <v>394290</v>
+      </c>
+      <c r="G24" s="10">
+        <f t="shared" si="6"/>
+        <v>1659060</v>
+      </c>
+      <c r="H24" s="10">
+        <f t="shared" si="7"/>
+        <v>6327945</v>
+      </c>
+      <c r="I24" s="10">
+        <f t="shared" si="8"/>
+        <v>22195875</v>
+      </c>
+      <c r="J24" s="10">
+        <f t="shared" si="20"/>
+        <v>29849716</v>
+      </c>
+      <c r="K24" s="10">
+        <f t="shared" si="16"/>
+        <v>11404780</v>
+      </c>
+      <c r="L24" s="10">
+        <f t="shared" si="17"/>
+        <v>4356556</v>
+      </c>
+      <c r="M24" s="10">
+        <f t="shared" si="18"/>
+        <v>1664078</v>
+      </c>
+      <c r="N24" s="10">
+        <f t="shared" si="19"/>
+        <v>635622</v>
+      </c>
+      <c r="O24" s="10">
+        <f t="shared" si="15"/>
+        <v>514229</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="10">
+        <f t="shared" si="1"/>
+        <v>301</v>
+      </c>
+      <c r="C25" s="10">
+        <f t="shared" si="2"/>
+        <v>2625</v>
+      </c>
+      <c r="D25" s="10">
+        <f t="shared" si="3"/>
+        <v>17875</v>
+      </c>
+      <c r="E25" s="10">
+        <f t="shared" si="4"/>
+        <v>101205</v>
+      </c>
+      <c r="F25" s="10">
+        <f t="shared" si="5"/>
+        <v>495495</v>
+      </c>
+      <c r="G25" s="10">
+        <f t="shared" si="6"/>
+        <v>2154555</v>
+      </c>
+      <c r="H25" s="10">
+        <f t="shared" si="7"/>
+        <v>8482500</v>
+      </c>
+      <c r="I25" s="10">
+        <f t="shared" si="8"/>
+        <v>30678375</v>
+      </c>
+      <c r="J25" s="10">
+        <f t="shared" si="20"/>
+        <v>18444936</v>
+      </c>
+      <c r="K25" s="10">
+        <f t="shared" si="16"/>
+        <v>7048224</v>
+      </c>
+      <c r="L25" s="10">
+        <f t="shared" si="17"/>
+        <v>2692478</v>
+      </c>
+      <c r="M25" s="10">
+        <f t="shared" si="18"/>
+        <v>1028456</v>
+      </c>
+      <c r="N25" s="10">
+        <f t="shared" si="19"/>
+        <v>392836</v>
+      </c>
+      <c r="O25" s="10">
+        <f t="shared" si="15"/>
+        <v>317811</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="10">
+        <f t="shared" si="1"/>
+        <v>326</v>
+      </c>
+      <c r="C26" s="10">
+        <f t="shared" si="2"/>
+        <v>2951</v>
+      </c>
+      <c r="D26" s="10">
+        <f t="shared" si="3"/>
+        <v>20826</v>
+      </c>
+      <c r="E26" s="10">
+        <f t="shared" si="4"/>
+        <v>122031</v>
+      </c>
+      <c r="F26" s="10">
+        <f t="shared" si="5"/>
+        <v>617526</v>
+      </c>
+      <c r="G26" s="10">
+        <f t="shared" si="6"/>
+        <v>2772081</v>
+      </c>
+      <c r="H26" s="10">
+        <f t="shared" si="7"/>
+        <v>11254581</v>
+      </c>
+      <c r="I26" s="10">
+        <f t="shared" si="8"/>
+        <v>41932956</v>
+      </c>
+      <c r="J26" s="10">
+        <f t="shared" si="20"/>
+        <v>11396712</v>
+      </c>
+      <c r="K26" s="10">
+        <f t="shared" si="16"/>
+        <v>4355746</v>
+      </c>
+      <c r="L26" s="10">
+        <f t="shared" si="17"/>
+        <v>1664022</v>
+      </c>
+      <c r="M26" s="10">
+        <f t="shared" si="18"/>
+        <v>635620</v>
+      </c>
+      <c r="N26" s="10">
+        <f t="shared" si="19"/>
+        <v>242786</v>
+      </c>
+      <c r="O26" s="10">
+        <f t="shared" si="15"/>
+        <v>196418</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="10">
+        <f t="shared" si="1"/>
+        <v>352</v>
+      </c>
+      <c r="C27" s="10">
+        <f t="shared" si="2"/>
+        <v>3303</v>
+      </c>
+      <c r="D27" s="10">
+        <f t="shared" si="3"/>
+        <v>24129</v>
+      </c>
+      <c r="E27" s="10">
+        <f t="shared" si="4"/>
+        <v>146160</v>
+      </c>
+      <c r="F27" s="10">
+        <f t="shared" si="5"/>
+        <v>763686</v>
+      </c>
+      <c r="G27" s="10">
+        <f t="shared" si="6"/>
+        <v>3535767</v>
+      </c>
+      <c r="H27" s="10">
+        <f t="shared" si="7"/>
+        <v>14790348</v>
+      </c>
+      <c r="I27" s="10">
+        <f t="shared" ref="G27:I48" si="21">J27+I28</f>
+        <v>18390774</v>
+      </c>
+      <c r="J27" s="10">
+        <f t="shared" ref="J27:J48" si="22">K27+J28</f>
+        <v>7040966</v>
+      </c>
+      <c r="K27" s="10">
+        <f t="shared" ref="K27:K48" si="23">L27+K28</f>
+        <v>2691724</v>
+      </c>
+      <c r="L27" s="10">
+        <f t="shared" ref="L27:L48" si="24">M27+L28</f>
+        <v>1028402</v>
+      </c>
+      <c r="M27" s="10">
+        <f t="shared" ref="M27:M48" si="25">N27+M28</f>
+        <v>392834</v>
+      </c>
+      <c r="N27" s="10">
+        <f t="shared" ref="N27:N48" si="26">N28+N29</f>
+        <v>150050</v>
+      </c>
+      <c r="O27" s="10">
+        <f t="shared" ref="O27:O48" si="27">O28+O29</f>
+        <v>121393</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="10">
+        <f t="shared" si="1"/>
+        <v>379</v>
+      </c>
+      <c r="C28" s="10">
+        <f t="shared" si="2"/>
+        <v>3682</v>
+      </c>
+      <c r="D28" s="10">
+        <f t="shared" si="3"/>
+        <v>27811</v>
+      </c>
+      <c r="E28" s="10">
+        <f t="shared" si="4"/>
+        <v>173971</v>
+      </c>
+      <c r="F28" s="10">
+        <f t="shared" si="5"/>
+        <v>937657</v>
+      </c>
+      <c r="G28" s="10">
+        <f t="shared" si="6"/>
+        <v>4473424</v>
+      </c>
+      <c r="H28" s="10">
+        <f t="shared" si="7"/>
+        <v>19263772</v>
+      </c>
+      <c r="I28" s="10">
+        <f t="shared" si="21"/>
+        <v>11349808</v>
+      </c>
+      <c r="J28" s="10">
+        <f t="shared" si="22"/>
+        <v>4349242</v>
+      </c>
+      <c r="K28" s="10">
+        <f t="shared" si="23"/>
+        <v>1663322</v>
+      </c>
+      <c r="L28" s="10">
+        <f t="shared" si="24"/>
+        <v>635568</v>
+      </c>
+      <c r="M28" s="10">
+        <f t="shared" si="25"/>
+        <v>242784</v>
+      </c>
+      <c r="N28" s="10">
+        <f t="shared" si="26"/>
+        <v>92736</v>
+      </c>
+      <c r="O28" s="10">
+        <f t="shared" si="27"/>
+        <v>75025</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="10">
+        <f t="shared" si="1"/>
+        <v>407</v>
+      </c>
+      <c r="C29" s="10">
+        <f t="shared" si="2"/>
+        <v>4089</v>
+      </c>
+      <c r="D29" s="10">
+        <f t="shared" si="3"/>
+        <v>31900</v>
+      </c>
+      <c r="E29" s="10">
+        <f t="shared" si="4"/>
+        <v>205871</v>
+      </c>
+      <c r="F29" s="10">
+        <f t="shared" si="5"/>
+        <v>1143528</v>
+      </c>
+      <c r="G29" s="10">
+        <f t="shared" si="6"/>
+        <v>5616952</v>
+      </c>
+      <c r="H29" s="10">
+        <f t="shared" si="7"/>
+        <v>24880724</v>
+      </c>
+      <c r="I29" s="10">
+        <f t="shared" si="21"/>
+        <v>7000566</v>
+      </c>
+      <c r="J29" s="10">
+        <f t="shared" si="22"/>
+        <v>2685920</v>
+      </c>
+      <c r="K29" s="10">
+        <f t="shared" si="23"/>
+        <v>1027754</v>
+      </c>
+      <c r="L29" s="10">
+        <f t="shared" si="24"/>
+        <v>392784</v>
+      </c>
+      <c r="M29" s="10">
+        <f t="shared" si="25"/>
+        <v>150048</v>
+      </c>
+      <c r="N29" s="10">
+        <f t="shared" si="26"/>
+        <v>57314</v>
+      </c>
+      <c r="O29" s="10">
+        <f t="shared" si="27"/>
+        <v>46368</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="10">
+        <f t="shared" si="1"/>
+        <v>436</v>
+      </c>
+      <c r="C30" s="10">
+        <f t="shared" si="2"/>
+        <v>4525</v>
+      </c>
+      <c r="D30" s="10">
+        <f t="shared" si="3"/>
+        <v>36425</v>
+      </c>
+      <c r="E30" s="10">
+        <f t="shared" si="4"/>
+        <v>242296</v>
+      </c>
+      <c r="F30" s="10">
+        <f t="shared" si="5"/>
+        <v>1385824</v>
+      </c>
+      <c r="G30" s="10">
+        <f t="shared" si="6"/>
+        <v>7002776</v>
+      </c>
+      <c r="H30" s="10">
+        <f t="shared" si="7"/>
+        <v>31883500</v>
+      </c>
+      <c r="I30" s="10">
+        <f t="shared" si="21"/>
+        <v>4314646</v>
+      </c>
+      <c r="J30" s="10">
+        <f t="shared" si="22"/>
+        <v>1658166</v>
+      </c>
+      <c r="K30" s="10">
+        <f t="shared" si="23"/>
+        <v>634970</v>
+      </c>
+      <c r="L30" s="10">
+        <f t="shared" si="24"/>
+        <v>242736</v>
+      </c>
+      <c r="M30" s="10">
+        <f t="shared" si="25"/>
+        <v>92734</v>
+      </c>
+      <c r="N30" s="10">
+        <f t="shared" si="26"/>
+        <v>35422</v>
+      </c>
+      <c r="O30" s="10">
+        <f t="shared" si="27"/>
+        <v>28657</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="10">
+        <f t="shared" si="1"/>
+        <v>466</v>
+      </c>
+      <c r="C31" s="10">
+        <f t="shared" si="2"/>
+        <v>4991</v>
+      </c>
+      <c r="D31" s="10">
+        <f t="shared" si="3"/>
+        <v>41416</v>
+      </c>
+      <c r="E31" s="10">
+        <f t="shared" si="4"/>
+        <v>283712</v>
+      </c>
+      <c r="F31" s="10">
+        <f t="shared" si="5"/>
+        <v>1669536</v>
+      </c>
+      <c r="G31" s="10">
+        <f t="shared" si="6"/>
+        <v>8672312</v>
+      </c>
+      <c r="H31" s="10">
+        <f t="shared" si="7"/>
+        <v>40555812</v>
+      </c>
+      <c r="I31" s="10">
+        <f t="shared" si="21"/>
+        <v>2656480</v>
+      </c>
+      <c r="J31" s="10">
+        <f t="shared" si="22"/>
+        <v>1023196</v>
+      </c>
+      <c r="K31" s="10">
+        <f t="shared" si="23"/>
+        <v>392234</v>
+      </c>
+      <c r="L31" s="10">
+        <f t="shared" si="24"/>
+        <v>150002</v>
+      </c>
+      <c r="M31" s="10">
+        <f t="shared" si="25"/>
+        <v>57312</v>
+      </c>
+      <c r="N31" s="10">
+        <f t="shared" si="26"/>
+        <v>21892</v>
+      </c>
+      <c r="O31" s="10">
+        <f t="shared" si="27"/>
+        <v>17711</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="10">
+        <f t="shared" si="1"/>
+        <v>497</v>
+      </c>
+      <c r="C32" s="10">
+        <f t="shared" si="2"/>
+        <v>5488</v>
+      </c>
+      <c r="D32" s="10">
+        <f t="shared" si="3"/>
+        <v>46904</v>
+      </c>
+      <c r="E32" s="10">
+        <f t="shared" si="4"/>
+        <v>330616</v>
+      </c>
+      <c r="F32" s="10">
+        <f t="shared" si="5"/>
+        <v>2000152</v>
+      </c>
+      <c r="G32" s="10">
+        <f t="shared" si="6"/>
+        <v>10672464</v>
+      </c>
+      <c r="H32" s="10">
+        <f t="shared" si="7"/>
+        <v>51228276</v>
+      </c>
+      <c r="I32" s="10">
+        <f t="shared" si="21"/>
+        <v>1633284</v>
+      </c>
+      <c r="J32" s="10">
+        <f t="shared" si="22"/>
+        <v>630962</v>
+      </c>
+      <c r="K32" s="10">
+        <f t="shared" si="23"/>
+        <v>242232</v>
+      </c>
+      <c r="L32" s="10">
+        <f t="shared" si="24"/>
+        <v>92690</v>
+      </c>
+      <c r="M32" s="10">
+        <f t="shared" si="25"/>
+        <v>35420</v>
+      </c>
+      <c r="N32" s="10">
+        <f t="shared" si="26"/>
+        <v>13530</v>
+      </c>
+      <c r="O32" s="10">
+        <f t="shared" si="27"/>
+        <v>10946</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15">
+      <c r="A33" s="10">
+        <v>32</v>
+      </c>
+      <c r="B33" s="10">
+        <f t="shared" si="1"/>
+        <v>529</v>
+      </c>
+      <c r="C33" s="10">
+        <f t="shared" si="2"/>
+        <v>6017</v>
+      </c>
+      <c r="D33" s="10">
+        <f t="shared" ref="D33:D49" si="28">E33+D34</f>
+        <v>88528682</v>
+      </c>
+      <c r="E33" s="10">
+        <f t="shared" ref="E33:E49" si="29">F33+E34</f>
+        <v>37742426</v>
+      </c>
+      <c r="F33" s="10">
+        <f t="shared" ref="F33:F49" si="30">G33+F34</f>
+        <v>15711614</v>
+      </c>
+      <c r="G33" s="10">
+        <f t="shared" si="21"/>
+        <v>6396218</v>
+      </c>
+      <c r="H33" s="10">
+        <f t="shared" si="21"/>
+        <v>2552834</v>
+      </c>
+      <c r="I33" s="10">
+        <f t="shared" si="21"/>
+        <v>1002322</v>
+      </c>
+      <c r="J33" s="10">
+        <f t="shared" si="22"/>
+        <v>388730</v>
+      </c>
+      <c r="K33" s="10">
+        <f t="shared" si="23"/>
+        <v>149542</v>
+      </c>
+      <c r="L33" s="10">
+        <f t="shared" si="24"/>
+        <v>57270</v>
+      </c>
+      <c r="M33" s="10">
+        <f t="shared" si="25"/>
+        <v>21890</v>
+      </c>
+      <c r="N33" s="10">
+        <f t="shared" si="26"/>
+        <v>8362</v>
+      </c>
+      <c r="O33" s="10">
+        <f t="shared" si="27"/>
+        <v>6765</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15">
+      <c r="A34" s="10">
+        <v>33</v>
+      </c>
+      <c r="B34" s="10">
+        <f t="shared" si="1"/>
+        <v>562</v>
+      </c>
+      <c r="C34" s="10">
+        <f t="shared" si="2"/>
+        <v>6579</v>
+      </c>
+      <c r="D34" s="10">
+        <f t="shared" si="28"/>
+        <v>50786256</v>
+      </c>
+      <c r="E34" s="10">
+        <f t="shared" si="29"/>
+        <v>22030812</v>
+      </c>
+      <c r="F34" s="10">
+        <f t="shared" si="30"/>
+        <v>9315396</v>
+      </c>
+      <c r="G34" s="10">
+        <f t="shared" si="21"/>
+        <v>3843384</v>
+      </c>
+      <c r="H34" s="10">
+        <f t="shared" si="21"/>
+        <v>1550512</v>
+      </c>
+      <c r="I34" s="10">
+        <f t="shared" si="21"/>
+        <v>613592</v>
+      </c>
+      <c r="J34" s="10">
+        <f t="shared" si="22"/>
+        <v>239188</v>
+      </c>
+      <c r="K34" s="10">
+        <f t="shared" si="23"/>
+        <v>92272</v>
+      </c>
+      <c r="L34" s="10">
+        <f t="shared" si="24"/>
+        <v>35380</v>
+      </c>
+      <c r="M34" s="10">
+        <f t="shared" si="25"/>
+        <v>13528</v>
+      </c>
+      <c r="N34" s="10">
+        <f t="shared" si="26"/>
+        <v>5168</v>
+      </c>
+      <c r="O34" s="10">
+        <f t="shared" si="27"/>
+        <v>4181</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15">
+      <c r="A35" s="10">
+        <v>34</v>
+      </c>
+      <c r="B35" s="10">
+        <f t="shared" si="1"/>
+        <v>596</v>
+      </c>
+      <c r="C35" s="10">
+        <f t="shared" si="2"/>
+        <v>7175</v>
+      </c>
+      <c r="D35" s="10">
+        <f t="shared" si="28"/>
+        <v>28755444</v>
+      </c>
+      <c r="E35" s="10">
+        <f t="shared" si="29"/>
+        <v>12715416</v>
+      </c>
+      <c r="F35" s="10">
+        <f t="shared" si="30"/>
+        <v>5472012</v>
+      </c>
+      <c r="G35" s="10">
+        <f t="shared" si="21"/>
+        <v>2292872</v>
+      </c>
+      <c r="H35" s="10">
+        <f t="shared" si="21"/>
+        <v>936920</v>
+      </c>
+      <c r="I35" s="10">
+        <f t="shared" si="21"/>
+        <v>374404</v>
+      </c>
+      <c r="J35" s="10">
+        <f t="shared" si="22"/>
+        <v>146916</v>
+      </c>
+      <c r="K35" s="10">
+        <f t="shared" si="23"/>
+        <v>56892</v>
+      </c>
+      <c r="L35" s="10">
+        <f t="shared" si="24"/>
+        <v>21852</v>
+      </c>
+      <c r="M35" s="10">
+        <f t="shared" si="25"/>
+        <v>8360</v>
+      </c>
+      <c r="N35" s="10">
+        <f t="shared" si="26"/>
+        <v>3194</v>
+      </c>
+      <c r="O35" s="10">
+        <f t="shared" si="27"/>
+        <v>2584</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15">
+      <c r="A36" s="10">
+        <v>35</v>
+      </c>
+      <c r="B36" s="10">
+        <f t="shared" si="1"/>
+        <v>631</v>
+      </c>
+      <c r="C36" s="10">
+        <f t="shared" si="2"/>
+        <v>7806</v>
+      </c>
+      <c r="D36" s="10">
+        <f t="shared" si="28"/>
+        <v>16040028</v>
+      </c>
+      <c r="E36" s="10">
+        <f t="shared" si="29"/>
+        <v>7243404</v>
+      </c>
+      <c r="F36" s="10">
+        <f t="shared" si="30"/>
+        <v>3179140</v>
+      </c>
+      <c r="G36" s="10">
+        <f t="shared" si="21"/>
+        <v>1355952</v>
+      </c>
+      <c r="H36" s="10">
+        <f t="shared" si="21"/>
+        <v>562516</v>
+      </c>
+      <c r="I36" s="10">
+        <f t="shared" si="21"/>
+        <v>227488</v>
+      </c>
+      <c r="J36" s="10">
+        <f t="shared" si="22"/>
+        <v>90024</v>
+      </c>
+      <c r="K36" s="10">
+        <f t="shared" si="23"/>
+        <v>35040</v>
+      </c>
+      <c r="L36" s="10">
+        <f t="shared" si="24"/>
+        <v>13492</v>
+      </c>
+      <c r="M36" s="10">
+        <f t="shared" si="25"/>
+        <v>5166</v>
+      </c>
+      <c r="N36" s="10">
+        <f t="shared" si="26"/>
+        <v>1974</v>
+      </c>
+      <c r="O36" s="10">
+        <f t="shared" si="27"/>
+        <v>1597</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15">
+      <c r="A37" s="10">
+        <v>36</v>
+      </c>
+      <c r="B37" s="10">
+        <f t="shared" si="1"/>
+        <v>667</v>
+      </c>
+      <c r="C37" s="10">
+        <f t="shared" si="2"/>
+        <v>8473</v>
+      </c>
+      <c r="D37" s="10">
+        <f t="shared" si="28"/>
+        <v>8796624</v>
+      </c>
+      <c r="E37" s="10">
+        <f t="shared" si="29"/>
+        <v>4064264</v>
+      </c>
+      <c r="F37" s="10">
+        <f t="shared" si="30"/>
+        <v>1823188</v>
+      </c>
+      <c r="G37" s="10">
+        <f t="shared" si="21"/>
+        <v>793436</v>
+      </c>
+      <c r="H37" s="10">
+        <f t="shared" si="21"/>
+        <v>335028</v>
+      </c>
+      <c r="I37" s="10">
+        <f t="shared" si="21"/>
+        <v>137464</v>
+      </c>
+      <c r="J37" s="10">
+        <f t="shared" si="22"/>
+        <v>54984</v>
+      </c>
+      <c r="K37" s="10">
+        <f t="shared" si="23"/>
+        <v>21548</v>
+      </c>
+      <c r="L37" s="10">
+        <f t="shared" si="24"/>
+        <v>8326</v>
+      </c>
+      <c r="M37" s="10">
+        <f t="shared" si="25"/>
+        <v>3192</v>
+      </c>
+      <c r="N37" s="10">
+        <f t="shared" si="26"/>
+        <v>1220</v>
+      </c>
+      <c r="O37" s="10">
+        <f t="shared" si="27"/>
+        <v>987</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15">
+      <c r="A38" s="10">
+        <v>37</v>
+      </c>
+      <c r="B38" s="10">
+        <f t="shared" si="1"/>
+        <v>704</v>
+      </c>
+      <c r="C38" s="10">
+        <f t="shared" si="2"/>
+        <v>9177</v>
+      </c>
+      <c r="D38" s="10">
+        <f t="shared" si="28"/>
+        <v>4732360</v>
+      </c>
+      <c r="E38" s="10">
+        <f t="shared" si="29"/>
+        <v>2241076</v>
+      </c>
+      <c r="F38" s="10">
+        <f t="shared" si="30"/>
+        <v>1029752</v>
+      </c>
+      <c r="G38" s="10">
+        <f t="shared" si="21"/>
+        <v>458408</v>
+      </c>
+      <c r="H38" s="10">
+        <f t="shared" si="21"/>
+        <v>197564</v>
+      </c>
+      <c r="I38" s="10">
+        <f t="shared" si="21"/>
+        <v>82480</v>
+      </c>
+      <c r="J38" s="10">
+        <f t="shared" si="22"/>
+        <v>33436</v>
+      </c>
+      <c r="K38" s="10">
+        <f t="shared" si="23"/>
+        <v>13222</v>
+      </c>
+      <c r="L38" s="10">
+        <f t="shared" si="24"/>
+        <v>5134</v>
+      </c>
+      <c r="M38" s="10">
+        <f t="shared" si="25"/>
+        <v>1972</v>
+      </c>
+      <c r="N38" s="10">
+        <f t="shared" si="26"/>
+        <v>754</v>
+      </c>
+      <c r="O38" s="10">
+        <f t="shared" si="27"/>
+        <v>610</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15">
+      <c r="A39" s="10">
+        <v>38</v>
+      </c>
+      <c r="B39" s="10">
+        <f t="shared" si="1"/>
+        <v>742</v>
+      </c>
+      <c r="C39" s="10">
+        <f t="shared" si="2"/>
+        <v>9919</v>
+      </c>
+      <c r="D39" s="10">
+        <f t="shared" si="28"/>
+        <v>2491284</v>
+      </c>
+      <c r="E39" s="10">
+        <f t="shared" si="29"/>
+        <v>1211324</v>
+      </c>
+      <c r="F39" s="10">
+        <f t="shared" si="30"/>
+        <v>571344</v>
+      </c>
+      <c r="G39" s="10">
+        <f t="shared" si="21"/>
+        <v>260844</v>
+      </c>
+      <c r="H39" s="10">
+        <f t="shared" si="21"/>
+        <v>115084</v>
+      </c>
+      <c r="I39" s="10">
+        <f t="shared" si="21"/>
+        <v>49044</v>
+      </c>
+      <c r="J39" s="10">
+        <f t="shared" si="22"/>
+        <v>20214</v>
+      </c>
+      <c r="K39" s="10">
+        <f t="shared" si="23"/>
+        <v>8088</v>
+      </c>
+      <c r="L39" s="10">
+        <f t="shared" si="24"/>
+        <v>3162</v>
+      </c>
+      <c r="M39" s="10">
+        <f t="shared" si="25"/>
+        <v>1218</v>
+      </c>
+      <c r="N39" s="10">
+        <f t="shared" si="26"/>
+        <v>466</v>
+      </c>
+      <c r="O39" s="10">
+        <f t="shared" si="27"/>
+        <v>377</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15">
+      <c r="A40" s="10">
+        <v>39</v>
+      </c>
+      <c r="B40" s="10">
+        <f t="shared" si="1"/>
+        <v>781</v>
+      </c>
+      <c r="C40" s="10">
+        <f t="shared" si="2"/>
+        <v>10700</v>
+      </c>
+      <c r="D40" s="10">
+        <f t="shared" si="28"/>
+        <v>1279960</v>
+      </c>
+      <c r="E40" s="10">
+        <f t="shared" si="29"/>
+        <v>639980</v>
+      </c>
+      <c r="F40" s="10">
+        <f t="shared" si="30"/>
+        <v>310500</v>
+      </c>
+      <c r="G40" s="10">
+        <f t="shared" si="21"/>
+        <v>145760</v>
+      </c>
+      <c r="H40" s="10">
+        <f t="shared" si="21"/>
+        <v>66040</v>
+      </c>
+      <c r="I40" s="10">
+        <f t="shared" si="21"/>
+        <v>28830</v>
+      </c>
+      <c r="J40" s="10">
+        <f t="shared" si="22"/>
+        <v>12126</v>
+      </c>
+      <c r="K40" s="10">
+        <f t="shared" si="23"/>
+        <v>4926</v>
+      </c>
+      <c r="L40" s="10">
+        <f t="shared" si="24"/>
+        <v>1944</v>
+      </c>
+      <c r="M40" s="10">
+        <f t="shared" si="25"/>
+        <v>752</v>
+      </c>
+      <c r="N40" s="10">
+        <f t="shared" si="26"/>
+        <v>288</v>
+      </c>
+      <c r="O40" s="10">
+        <f t="shared" si="27"/>
+        <v>233</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15">
+      <c r="A41" s="10">
+        <v>40</v>
+      </c>
+      <c r="B41" s="10">
+        <f t="shared" si="1"/>
+        <v>821</v>
+      </c>
+      <c r="C41" s="10">
+        <f t="shared" si="2"/>
+        <v>11521</v>
+      </c>
+      <c r="D41" s="10">
+        <f t="shared" si="28"/>
+        <v>639980</v>
+      </c>
+      <c r="E41" s="10">
+        <f t="shared" si="29"/>
+        <v>329480</v>
+      </c>
+      <c r="F41" s="10">
+        <f t="shared" si="30"/>
+        <v>164740</v>
+      </c>
+      <c r="G41" s="10">
+        <f t="shared" si="21"/>
+        <v>79720</v>
+      </c>
+      <c r="H41" s="10">
+        <f t="shared" si="21"/>
+        <v>37210</v>
+      </c>
+      <c r="I41" s="10">
+        <f t="shared" si="21"/>
+        <v>16704</v>
+      </c>
+      <c r="J41" s="10">
+        <f t="shared" si="22"/>
+        <v>7200</v>
+      </c>
+      <c r="K41" s="10">
+        <f t="shared" si="23"/>
+        <v>2982</v>
+      </c>
+      <c r="L41" s="10">
+        <f t="shared" si="24"/>
+        <v>1192</v>
+      </c>
+      <c r="M41" s="10">
+        <f t="shared" si="25"/>
+        <v>464</v>
+      </c>
+      <c r="N41" s="10">
+        <f t="shared" si="26"/>
+        <v>178</v>
+      </c>
+      <c r="O41" s="10">
+        <f t="shared" si="27"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15">
+      <c r="A42" s="10">
+        <v>41</v>
+      </c>
+      <c r="B42" s="10">
+        <f t="shared" si="1"/>
+        <v>862</v>
+      </c>
+      <c r="C42" s="10">
+        <f t="shared" si="2"/>
+        <v>12383</v>
+      </c>
+      <c r="D42" s="10">
+        <f t="shared" si="28"/>
+        <v>310500</v>
+      </c>
+      <c r="E42" s="10">
+        <f t="shared" si="29"/>
+        <v>164740</v>
+      </c>
+      <c r="F42" s="10">
+        <f t="shared" si="30"/>
+        <v>85020</v>
+      </c>
+      <c r="G42" s="10">
+        <f t="shared" si="21"/>
+        <v>42510</v>
+      </c>
+      <c r="H42" s="10">
+        <f t="shared" si="21"/>
+        <v>20506</v>
+      </c>
+      <c r="I42" s="10">
+        <f t="shared" si="21"/>
+        <v>9504</v>
+      </c>
+      <c r="J42" s="10">
+        <f t="shared" si="22"/>
+        <v>4218</v>
+      </c>
+      <c r="K42" s="10">
+        <f t="shared" si="23"/>
+        <v>1790</v>
+      </c>
+      <c r="L42" s="10">
+        <f t="shared" si="24"/>
+        <v>728</v>
+      </c>
+      <c r="M42" s="10">
+        <f t="shared" si="25"/>
+        <v>286</v>
+      </c>
+      <c r="N42" s="10">
+        <f t="shared" si="26"/>
+        <v>110</v>
+      </c>
+      <c r="O42" s="10">
+        <f t="shared" si="27"/>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15">
+      <c r="A43" s="10">
+        <v>42</v>
+      </c>
+      <c r="B43" s="10">
+        <f t="shared" si="1"/>
+        <v>904</v>
+      </c>
+      <c r="C43" s="10">
+        <f t="shared" si="2"/>
+        <v>13287</v>
+      </c>
+      <c r="D43" s="10">
+        <f t="shared" si="28"/>
+        <v>145760</v>
+      </c>
+      <c r="E43" s="10">
+        <f t="shared" si="29"/>
+        <v>79720</v>
+      </c>
+      <c r="F43" s="10">
+        <f t="shared" si="30"/>
+        <v>42510</v>
+      </c>
+      <c r="G43" s="10">
+        <f t="shared" si="21"/>
+        <v>22004</v>
+      </c>
+      <c r="H43" s="10">
+        <f t="shared" si="21"/>
+        <v>11002</v>
+      </c>
+      <c r="I43" s="10">
+        <f t="shared" si="21"/>
+        <v>5286</v>
+      </c>
+      <c r="J43" s="10">
+        <f t="shared" si="22"/>
+        <v>2428</v>
+      </c>
+      <c r="K43" s="10">
+        <f t="shared" si="23"/>
+        <v>1062</v>
+      </c>
+      <c r="L43" s="10">
+        <f t="shared" si="24"/>
+        <v>442</v>
+      </c>
+      <c r="M43" s="10">
+        <f t="shared" si="25"/>
+        <v>176</v>
+      </c>
+      <c r="N43" s="10">
+        <f t="shared" si="26"/>
+        <v>68</v>
+      </c>
+      <c r="O43" s="10">
+        <f t="shared" si="27"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15">
+      <c r="A44" s="10">
+        <v>43</v>
+      </c>
+      <c r="B44" s="10">
+        <f t="shared" si="1"/>
+        <v>947</v>
+      </c>
+      <c r="C44" s="10">
+        <f t="shared" si="2"/>
+        <v>14234</v>
+      </c>
+      <c r="D44" s="10">
+        <f t="shared" si="28"/>
+        <v>66040</v>
+      </c>
+      <c r="E44" s="10">
+        <f t="shared" si="29"/>
+        <v>37210</v>
+      </c>
+      <c r="F44" s="10">
+        <f t="shared" si="30"/>
+        <v>20506</v>
+      </c>
+      <c r="G44" s="10">
+        <f t="shared" si="21"/>
+        <v>11002</v>
+      </c>
+      <c r="H44" s="10">
+        <f t="shared" si="21"/>
+        <v>5716</v>
+      </c>
+      <c r="I44" s="10">
+        <f t="shared" si="21"/>
+        <v>2858</v>
+      </c>
+      <c r="J44" s="10">
+        <f t="shared" si="22"/>
+        <v>1366</v>
+      </c>
+      <c r="K44" s="10">
+        <f t="shared" si="23"/>
+        <v>620</v>
+      </c>
+      <c r="L44" s="10">
+        <f t="shared" si="24"/>
+        <v>266</v>
+      </c>
+      <c r="M44" s="10">
+        <f t="shared" si="25"/>
+        <v>108</v>
+      </c>
+      <c r="N44" s="10">
+        <f t="shared" si="26"/>
+        <v>42</v>
+      </c>
+      <c r="O44" s="10">
+        <f t="shared" si="27"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15">
+      <c r="A45" s="10">
+        <v>44</v>
+      </c>
+      <c r="B45" s="10">
+        <f t="shared" si="1"/>
+        <v>991</v>
+      </c>
+      <c r="C45" s="10">
+        <f t="shared" si="2"/>
+        <v>15225</v>
+      </c>
+      <c r="D45" s="10">
+        <f t="shared" si="28"/>
+        <v>28830</v>
+      </c>
+      <c r="E45" s="10">
+        <f t="shared" si="29"/>
+        <v>16704</v>
+      </c>
+      <c r="F45" s="10">
+        <f t="shared" si="30"/>
+        <v>9504</v>
+      </c>
+      <c r="G45" s="10">
+        <f t="shared" si="21"/>
+        <v>5286</v>
+      </c>
+      <c r="H45" s="10">
+        <f t="shared" si="21"/>
+        <v>2858</v>
+      </c>
+      <c r="I45" s="10">
+        <f t="shared" si="21"/>
+        <v>1492</v>
+      </c>
+      <c r="J45" s="10">
+        <f t="shared" si="22"/>
+        <v>746</v>
+      </c>
+      <c r="K45" s="10">
+        <f t="shared" si="23"/>
+        <v>354</v>
+      </c>
+      <c r="L45" s="10">
+        <f t="shared" si="24"/>
+        <v>158</v>
+      </c>
+      <c r="M45" s="10">
+        <f t="shared" si="25"/>
+        <v>66</v>
+      </c>
+      <c r="N45" s="10">
+        <f t="shared" si="26"/>
+        <v>26</v>
+      </c>
+      <c r="O45" s="10">
+        <f t="shared" si="27"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15">
+      <c r="A46" s="10">
+        <v>45</v>
+      </c>
+      <c r="B46" s="10">
+        <f t="shared" si="1"/>
+        <v>1036</v>
+      </c>
+      <c r="C46" s="10">
+        <f t="shared" si="2"/>
+        <v>16261</v>
+      </c>
+      <c r="D46" s="10">
+        <f t="shared" si="28"/>
+        <v>12126</v>
+      </c>
+      <c r="E46" s="10">
+        <f t="shared" si="29"/>
+        <v>7200</v>
+      </c>
+      <c r="F46" s="10">
+        <f t="shared" si="30"/>
+        <v>4218</v>
+      </c>
+      <c r="G46" s="10">
+        <f t="shared" si="21"/>
+        <v>2428</v>
+      </c>
+      <c r="H46" s="10">
+        <f t="shared" si="21"/>
+        <v>1366</v>
+      </c>
+      <c r="I46" s="10">
+        <f t="shared" si="21"/>
+        <v>746</v>
+      </c>
+      <c r="J46" s="10">
+        <f t="shared" si="22"/>
+        <v>392</v>
+      </c>
+      <c r="K46" s="10">
+        <f t="shared" si="23"/>
+        <v>196</v>
+      </c>
+      <c r="L46" s="10">
+        <f t="shared" si="24"/>
+        <v>92</v>
+      </c>
+      <c r="M46" s="10">
+        <f t="shared" si="25"/>
+        <v>40</v>
+      </c>
+      <c r="N46" s="10">
+        <f t="shared" si="26"/>
+        <v>16</v>
+      </c>
+      <c r="O46" s="10">
+        <f t="shared" si="27"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15">
+      <c r="A47" s="10">
+        <v>46</v>
+      </c>
+      <c r="B47" s="10">
+        <f t="shared" si="1"/>
+        <v>1082</v>
+      </c>
+      <c r="C47" s="10">
+        <f t="shared" si="2"/>
+        <v>17343</v>
+      </c>
+      <c r="D47" s="10">
+        <f t="shared" si="28"/>
+        <v>4926</v>
+      </c>
+      <c r="E47" s="10">
+        <f t="shared" si="29"/>
+        <v>2982</v>
+      </c>
+      <c r="F47" s="10">
+        <f t="shared" si="30"/>
+        <v>1790</v>
+      </c>
+      <c r="G47" s="10">
+        <f t="shared" si="21"/>
+        <v>1062</v>
+      </c>
+      <c r="H47" s="10">
+        <f t="shared" si="21"/>
+        <v>620</v>
+      </c>
+      <c r="I47" s="10">
+        <f t="shared" si="21"/>
+        <v>354</v>
+      </c>
+      <c r="J47" s="10">
+        <f t="shared" si="22"/>
+        <v>196</v>
+      </c>
+      <c r="K47" s="10">
+        <f t="shared" si="23"/>
+        <v>104</v>
+      </c>
+      <c r="L47" s="10">
+        <f t="shared" si="24"/>
+        <v>52</v>
+      </c>
+      <c r="M47" s="10">
+        <f t="shared" si="25"/>
+        <v>24</v>
+      </c>
+      <c r="N47" s="10">
+        <f t="shared" si="26"/>
+        <v>10</v>
+      </c>
+      <c r="O47" s="10">
+        <f t="shared" si="27"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15">
+      <c r="A48" s="10">
+        <v>47</v>
+      </c>
+      <c r="B48" s="10">
+        <f t="shared" si="1"/>
+        <v>1129</v>
+      </c>
+      <c r="C48" s="10">
+        <f t="shared" si="2"/>
+        <v>18472</v>
+      </c>
+      <c r="D48" s="10">
+        <f t="shared" si="28"/>
+        <v>1944</v>
+      </c>
+      <c r="E48" s="10">
+        <f t="shared" si="29"/>
+        <v>1192</v>
+      </c>
+      <c r="F48" s="10">
+        <f t="shared" si="30"/>
+        <v>728</v>
+      </c>
+      <c r="G48" s="10">
+        <f t="shared" si="21"/>
+        <v>442</v>
+      </c>
+      <c r="H48" s="10">
+        <f t="shared" si="21"/>
+        <v>266</v>
+      </c>
+      <c r="I48" s="10">
+        <f t="shared" si="21"/>
+        <v>158</v>
+      </c>
+      <c r="J48" s="10">
+        <f t="shared" si="22"/>
+        <v>92</v>
+      </c>
+      <c r="K48" s="10">
+        <f t="shared" si="23"/>
+        <v>52</v>
+      </c>
+      <c r="L48" s="10">
+        <f t="shared" si="24"/>
+        <v>28</v>
+      </c>
+      <c r="M48" s="10">
+        <f t="shared" si="25"/>
+        <v>14</v>
+      </c>
+      <c r="N48" s="10">
+        <f t="shared" si="26"/>
+        <v>6</v>
+      </c>
+      <c r="O48" s="10">
+        <f t="shared" si="27"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15">
+      <c r="A49" s="10">
+        <v>48</v>
+      </c>
+      <c r="B49" s="10">
+        <f t="shared" si="1"/>
+        <v>1177</v>
+      </c>
+      <c r="C49" s="10">
+        <f t="shared" si="2"/>
+        <v>19649</v>
+      </c>
+      <c r="D49" s="10">
+        <f t="shared" si="28"/>
+        <v>752</v>
+      </c>
+      <c r="E49" s="10">
+        <f t="shared" si="29"/>
+        <v>464</v>
+      </c>
+      <c r="F49" s="10">
+        <f t="shared" si="30"/>
+        <v>286</v>
+      </c>
+      <c r="G49" s="10">
+        <f t="shared" ref="G49:L49" si="31">H49+G50</f>
+        <v>176</v>
+      </c>
+      <c r="H49" s="10">
+        <f t="shared" si="31"/>
+        <v>108</v>
+      </c>
+      <c r="I49" s="10">
+        <f t="shared" si="31"/>
+        <v>66</v>
+      </c>
+      <c r="J49" s="10">
+        <f t="shared" si="31"/>
+        <v>40</v>
+      </c>
+      <c r="K49" s="10">
+        <f t="shared" si="31"/>
+        <v>24</v>
+      </c>
+      <c r="L49" s="10">
+        <f t="shared" si="31"/>
+        <v>14</v>
+      </c>
+      <c r="M49" s="10">
+        <f>N49+M50</f>
+        <v>8</v>
+      </c>
+      <c r="N49" s="10">
+        <f>N50+N51</f>
+        <v>4</v>
+      </c>
+      <c r="O49" s="10">
+        <f>O50+O51</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15">
+      <c r="A50" s="10">
+        <v>49</v>
+      </c>
+      <c r="B50" s="10">
+        <f t="shared" si="1"/>
+        <v>1226</v>
+      </c>
+      <c r="C50" s="10">
+        <f t="shared" si="2"/>
+        <v>20875</v>
+      </c>
+      <c r="D50" s="10">
+        <f t="shared" ref="D50:D51" si="32">E50+F50</f>
+        <v>288</v>
+      </c>
+      <c r="E50" s="10">
+        <f t="shared" ref="E50:E51" si="33">F50+G50</f>
+        <v>178</v>
+      </c>
+      <c r="F50" s="10">
+        <f t="shared" ref="F50:F51" si="34">G50+H50</f>
+        <v>110</v>
+      </c>
+      <c r="G50" s="10">
+        <f t="shared" ref="G50:L50" si="35">H50+I50</f>
+        <v>68</v>
+      </c>
+      <c r="H50" s="10">
+        <f t="shared" si="35"/>
+        <v>42</v>
+      </c>
+      <c r="I50" s="10">
+        <f t="shared" si="35"/>
+        <v>26</v>
+      </c>
+      <c r="J50" s="10">
+        <f t="shared" si="35"/>
+        <v>16</v>
+      </c>
+      <c r="K50" s="10">
+        <f t="shared" si="35"/>
+        <v>10</v>
+      </c>
+      <c r="L50" s="10">
+        <f t="shared" si="35"/>
+        <v>6</v>
+      </c>
+      <c r="M50" s="10">
+        <f>N50+O50</f>
+        <v>4</v>
+      </c>
+      <c r="N50" s="10">
+        <v>2</v>
+      </c>
+      <c r="O50" s="10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15">
+      <c r="A51" s="10">
+        <v>50</v>
+      </c>
+      <c r="B51" s="10">
+        <f t="shared" si="1"/>
+        <v>1276</v>
+      </c>
+      <c r="C51" s="10">
+        <f t="shared" si="2"/>
+        <v>22151</v>
+      </c>
+      <c r="D51" s="10">
+        <f t="shared" si="32"/>
+        <v>233</v>
+      </c>
+      <c r="E51" s="10">
+        <f t="shared" si="33"/>
+        <v>144</v>
+      </c>
+      <c r="F51" s="10">
+        <f t="shared" si="34"/>
+        <v>89</v>
+      </c>
+      <c r="G51" s="10">
+        <f t="shared" ref="G51:L51" si="36">H51+I51</f>
+        <v>55</v>
+      </c>
+      <c r="H51" s="10">
+        <f t="shared" si="36"/>
+        <v>34</v>
+      </c>
+      <c r="I51" s="10">
+        <f t="shared" si="36"/>
+        <v>21</v>
+      </c>
+      <c r="J51" s="10">
+        <f t="shared" si="36"/>
+        <v>13</v>
+      </c>
+      <c r="K51" s="10">
+        <f t="shared" si="36"/>
+        <v>8</v>
+      </c>
+      <c r="L51" s="10">
+        <f t="shared" si="36"/>
+        <v>5</v>
+      </c>
+      <c r="M51" s="10">
+        <f>N51+O51</f>
+        <v>3</v>
+      </c>
+      <c r="N51" s="10">
+        <v>2</v>
+      </c>
+      <c r="O51" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/test/test_data/test.xlsx
+++ b/test/test_data/test.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennell\Documents\Elixir Projects\xlsx_dir\xlsxir\test\test_data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12795" windowHeight="4410" activeTab="8"/>
+    <workbookView xWindow="0" yWindow="450" windowWidth="12795" windowHeight="4410" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,6 +21,7 @@
     <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
+    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
@@ -35,7 +41,7 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="6">"Sheet7"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Sheet8"</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="171027"/>
   <webPublishing css="0" allowPng="1" codePage="1252"/>
 </workbook>
 </file>
@@ -115,7 +121,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="\_x0009_\ ####.#"/>
     <numFmt numFmtId="165" formatCode="#.0#"/>
@@ -203,6 +209,14 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -249,7 +263,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -281,9 +295,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -315,6 +347,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -490,7 +540,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -529,8 +579,67 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+      <c r="E1">
+        <v>1</v>
+      </c>
+      <c r="H1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -570,7 +679,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:XFD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49748,7 +49857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49777,7 +49886,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49819,7 +49928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49867,7 +49976,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49902,7 +50011,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -49934,10 +50043,10 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -50114,51 +50223,51 @@
         <v>14</v>
       </c>
       <c r="D4" s="10">
-        <f t="shared" ref="D4:D51" si="3">D3+C4</f>
+        <f t="shared" ref="D4:D32" si="3">D3+C4</f>
         <v>25</v>
       </c>
       <c r="E4" s="10">
-        <f t="shared" ref="E4:E51" si="4">E3+D4</f>
+        <f t="shared" ref="E4:E32" si="4">E3+D4</f>
         <v>41</v>
       </c>
       <c r="F4" s="10">
-        <f t="shared" ref="F4:F51" si="5">F3+E4</f>
+        <f t="shared" ref="F4:F32" si="5">F3+E4</f>
         <v>63</v>
       </c>
       <c r="G4" s="10">
-        <f t="shared" ref="G4:G51" si="6">G3+F4</f>
+        <f t="shared" ref="G4:G32" si="6">G3+F4</f>
         <v>92</v>
       </c>
       <c r="H4" s="10">
-        <f t="shared" ref="H4:H51" si="7">H3+G4</f>
+        <f t="shared" ref="H4:H32" si="7">H3+G4</f>
         <v>129</v>
       </c>
       <c r="I4" s="10">
-        <f t="shared" ref="I4:I51" si="8">I3+H4</f>
+        <f t="shared" ref="I4:I26" si="8">I3+H4</f>
         <v>175</v>
       </c>
       <c r="J4" s="10">
-        <f t="shared" ref="J4:J51" si="9">J3+I4</f>
+        <f t="shared" ref="J4:J18" si="9">J3+I4</f>
         <v>231</v>
       </c>
       <c r="K4" s="10">
-        <f t="shared" ref="K4:K51" si="10">K3+J4</f>
+        <f t="shared" ref="K4:K17" si="10">K3+J4</f>
         <v>298</v>
       </c>
       <c r="L4" s="10">
-        <f t="shared" ref="L4:L51" si="11">L3+K4</f>
+        <f t="shared" ref="L4:L17" si="11">L3+K4</f>
         <v>377</v>
       </c>
       <c r="M4" s="10">
-        <f t="shared" ref="M4:M51" si="12">M3+L4</f>
+        <f t="shared" ref="M4:M17" si="12">M3+L4</f>
         <v>469</v>
       </c>
       <c r="N4" s="10">
-        <f t="shared" ref="N4:N51" si="13">N3+M4</f>
+        <f t="shared" ref="N4:N17" si="13">N3+M4</f>
         <v>575</v>
       </c>
       <c r="O4" s="10">
-        <f t="shared" ref="O4:O51" si="14">O3+N4</f>
+        <f t="shared" ref="O4:O17" si="14">O3+N4</f>
         <v>696</v>
       </c>
     </row>
@@ -51092,19 +51201,19 @@
         <v>0.3354166666666667</v>
       </c>
       <c r="K20" s="10">
-        <f t="shared" ref="K19:K26" si="16">L20+K21</f>
+        <f t="shared" ref="K20:K26" si="16">L20+K21</f>
         <v>78175076</v>
       </c>
       <c r="L20" s="10">
-        <f t="shared" ref="L19:L26" si="17">M20+L21</f>
+        <f t="shared" ref="L20:L26" si="17">M20+L21</f>
         <v>29860634</v>
       </c>
       <c r="M20" s="10">
-        <f t="shared" ref="M19:M26" si="18">N20+M21</f>
+        <f t="shared" ref="M20:M26" si="18">N20+M21</f>
         <v>11405772</v>
       </c>
       <c r="N20" s="10">
-        <f t="shared" ref="N19:N26" si="19">N21+N22</f>
+        <f t="shared" ref="N20:N26" si="19">N21+N22</f>
         <v>4356618</v>
       </c>
       <c r="O20" s="10">
@@ -51209,7 +51318,7 @@
         <v>11199045</v>
       </c>
       <c r="J22" s="10">
-        <f t="shared" ref="J19:J26" si="20">K22+J23</f>
+        <f t="shared" ref="J22:J26" si="20">K22+J23</f>
         <v>78163168</v>
       </c>
       <c r="K22" s="10">

--- a/test/test_data/test.xlsx
+++ b/test/test_data/test.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="18201"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10812"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jkennell\Documents\Elixir Projects\xlsx_dir\xlsxir\test\test_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kenips/Code/github/xlsxir/test/test_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{161E9F75-692B-5C49-9C6A-936B91849CD9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="450" windowWidth="12795" windowHeight="4410" activeTab="9"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23060" windowHeight="17060" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,6 +23,7 @@
     <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
     <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
     <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
+    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">#REF!</definedName>
@@ -41,8 +43,15 @@
     <definedName name="_xlnm.Sheet_Title" localSheetId="6">"Sheet7"</definedName>
     <definedName name="_xlnm.Sheet_Title" localSheetId="7">"Sheet8"</definedName>
   </definedNames>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179021"/>
   <webPublishing css="0" allowPng="1" codePage="1252"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -121,7 +130,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="\_x0009_\ ####.#"/>
     <numFmt numFmtId="165" formatCode="#.0#"/>
@@ -540,14 +549,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -580,14 +589,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13"/>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="A1">
@@ -631,6 +640,187 @@
       </c>
       <c r="D4">
         <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDE18A16-8B80-314A-A6DF-23F022D0F100}">
+  <dimension ref="A1:J4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetData>
+    <row r="1" spans="1:10">
+      <c r="A1">
+        <f>IF(Sheet10!A1&lt;&gt;"",Sheet10!A1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="B1" t="str">
+        <f>IF(Sheet10!B1&lt;&gt;"",Sheet10!B1,"")</f>
+        <v/>
+      </c>
+      <c r="C1">
+        <f>IF(Sheet10!C1&lt;&gt;"",Sheet10!C1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="D1" t="str">
+        <f>IF(Sheet10!D1&lt;&gt;"",Sheet10!D1,"")</f>
+        <v/>
+      </c>
+      <c r="E1">
+        <f>IF(Sheet10!E1&lt;&gt;"",Sheet10!E1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F1" t="str">
+        <f>IF(Sheet10!F1&lt;&gt;"",Sheet10!F1,"")</f>
+        <v/>
+      </c>
+      <c r="G1" t="str">
+        <f>IF(Sheet10!G1&lt;&gt;"",Sheet10!G1,"")</f>
+        <v/>
+      </c>
+      <c r="H1">
+        <f>IF(Sheet10!H1&lt;&gt;"",Sheet10!H1,"")</f>
+        <v>1</v>
+      </c>
+      <c r="I1" t="str">
+        <f>IF(Sheet10!I1&lt;&gt;"",Sheet10!I1,"")</f>
+        <v/>
+      </c>
+      <c r="J1" t="str">
+        <f>IF(Sheet10!J1&lt;&gt;"",Sheet10!J1,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" t="str">
+        <f>IF(Sheet10!A2&lt;&gt;"",Sheet10!A2,"")</f>
+        <v/>
+      </c>
+      <c r="B2">
+        <f>IF(Sheet10!B2&lt;&gt;"",Sheet10!B2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C2" t="str">
+        <f>IF(Sheet10!C2&lt;&gt;"",Sheet10!C2,"")</f>
+        <v/>
+      </c>
+      <c r="D2" t="str">
+        <f>IF(Sheet10!D2&lt;&gt;"",Sheet10!D2,"")</f>
+        <v/>
+      </c>
+      <c r="E2">
+        <f>IF(Sheet10!E2&lt;&gt;"",Sheet10!E2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(Sheet10!F2&lt;&gt;"",Sheet10!F2,"")</f>
+        <v/>
+      </c>
+      <c r="G2">
+        <f>IF(Sheet10!G2&lt;&gt;"",Sheet10!G2,"")</f>
+        <v>1</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(Sheet10!H2&lt;&gt;"",Sheet10!H2,"")</f>
+        <v/>
+      </c>
+      <c r="I2" t="str">
+        <f>IF(Sheet10!I2&lt;&gt;"",Sheet10!I2,"")</f>
+        <v/>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(Sheet10!J2&lt;&gt;"",Sheet10!J2,"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="str">
+        <f>IF(Sheet10!A3&lt;&gt;"",Sheet10!A3,"")</f>
+        <v/>
+      </c>
+      <c r="B3" t="str">
+        <f>IF(Sheet10!B3&lt;&gt;"",Sheet10!B3,"")</f>
+        <v/>
+      </c>
+      <c r="C3" t="str">
+        <f>IF(Sheet10!C3&lt;&gt;"",Sheet10!C3,"")</f>
+        <v/>
+      </c>
+      <c r="D3" t="str">
+        <f>IF(Sheet10!D3&lt;&gt;"",Sheet10!D3,"")</f>
+        <v/>
+      </c>
+      <c r="E3" t="str">
+        <f>IF(Sheet10!E3&lt;&gt;"",Sheet10!E3,"")</f>
+        <v/>
+      </c>
+      <c r="F3">
+        <f>IF(Sheet10!F3&lt;&gt;"",Sheet10!F3,"")</f>
+        <v>1</v>
+      </c>
+      <c r="G3" t="str">
+        <f>IF(Sheet10!G3&lt;&gt;"",Sheet10!G3,"")</f>
+        <v/>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(Sheet10!H3&lt;&gt;"",Sheet10!H3,"")</f>
+        <v/>
+      </c>
+      <c r="I3" t="str">
+        <f>IF(Sheet10!I3&lt;&gt;"",Sheet10!I3,"")</f>
+        <v/>
+      </c>
+      <c r="J3">
+        <f>IF(Sheet10!J3&lt;&gt;"",Sheet10!J3,"")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4">
+        <f>IF(Sheet10!A4&lt;&gt;"",Sheet10!A4,"")</f>
+        <v>1</v>
+      </c>
+      <c r="B4">
+        <f>IF(Sheet10!B4&lt;&gt;"",Sheet10!B4,"")</f>
+        <v>1</v>
+      </c>
+      <c r="C4" t="str">
+        <f>IF(Sheet10!C4&lt;&gt;"",Sheet10!C4,"")</f>
+        <v/>
+      </c>
+      <c r="D4">
+        <f>IF(Sheet10!D4&lt;&gt;"",Sheet10!D4,"")</f>
+        <v>1</v>
+      </c>
+      <c r="E4" t="str">
+        <f>IF(Sheet10!E4&lt;&gt;"",Sheet10!E4,"")</f>
+        <v/>
+      </c>
+      <c r="F4" t="str">
+        <f>IF(Sheet10!F4&lt;&gt;"",Sheet10!F4,"")</f>
+        <v/>
+      </c>
+      <c r="G4" t="str">
+        <f>IF(Sheet10!G4&lt;&gt;"",Sheet10!G4,"")</f>
+        <v/>
+      </c>
+      <c r="H4" t="str">
+        <f>IF(Sheet10!H4&lt;&gt;"",Sheet10!H4,"")</f>
+        <v/>
+      </c>
+      <c r="I4" t="str">
+        <f>IF(Sheet10!I4&lt;&gt;"",Sheet10!I4,"")</f>
+        <v/>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(Sheet10!J4&lt;&gt;"",Sheet10!J4,"")</f>
+        <v/>
       </c>
     </row>
   </sheetData>
@@ -639,16 +829,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -679,16 +869,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:XFD1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16384">
@@ -49857,16 +50047,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1048576"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B1048576" sqref="B1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1048576" spans="1:1">
@@ -49886,16 +50076,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -49928,20 +50118,20 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="3" width="9.140625" style="1"/>
+    <col min="1" max="3" width="9.19921875" style="1"/>
     <col min="4" max="4" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="25.28515625" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="13.19921875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="25.19921875" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -49976,17 +50166,17 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
@@ -50011,16 +50201,16 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="16384" width="9.19921875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -50043,16 +50233,16 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:O51"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="14" width="9.140625" style="10"/>
-    <col min="15" max="15" width="12.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="16" max="16384" width="9.140625" style="10"/>
+    <col min="1" max="14" width="9.19921875" style="10"/>
+    <col min="15" max="15" width="12.3984375" style="10" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="9.19921875" style="10"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
